--- a/dumps/Stocks/Rail Vikas Nigam.xlsx
+++ b/dumps/Stocks/Rail Vikas Nigam.xlsx
@@ -16,10 +16,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="[$₹]#,##0.00"/>
     <numFmt numFmtId="165" formatCode="dd-mmm-yyyy"/>
     <numFmt numFmtId="166" formatCode="YYYY-MM-DD"/>
+    <numFmt numFmtId="167" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -204,7 +205,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -443,6 +444,7 @@
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -750,7 +752,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP1004"/>
+  <dimension ref="A1:AP1005"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
@@ -1099,43 +1101,47 @@
       <c r="AP4" s="57" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="89" t="n">
-        <v>46057</v>
-      </c>
-      <c r="B5" s="0" t="inlineStr">
+      <c r="A5" s="90" t="n">
+        <v>46062</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>NSE</t>
         </is>
       </c>
-      <c r="C5" s="0" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5" t="n">
         <v>10</v>
       </c>
-      <c r="E5" s="0" t="n">
-        <v>321.15</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>3234.33</v>
-      </c>
-      <c r="G5" s="0" t="inlineStr">
+      <c r="E5" t="n">
+        <v>315.4</v>
+      </c>
+      <c r="F5" t="n">
+        <v>3176.37</v>
+      </c>
+      <c r="G5" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>CN#252611665409</t>
         </is>
       </c>
-      <c r="H5" s="0" t="n">
-        <v>3.22</v>
-      </c>
-      <c r="I5" s="0" t="n">
-        <v>19.61</v>
+      <c r="H5" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I5" t="n">
+        <v>19.22</v>
+      </c>
+      <c r="J5">
+        <f>Index!$C$2</f>
+        <v/>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="89" t="n">
-        <v>46049</v>
+        <v>46057</v>
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
@@ -1151,10 +1157,10 @@
         <v>10</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>326.5</v>
+        <v>321.15</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>3288.13</v>
+        <v>3234.33</v>
       </c>
       <c r="G6" s="0" t="inlineStr">
         <is>
@@ -1162,15 +1168,15 @@
         </is>
       </c>
       <c r="H6" s="0" t="n">
-        <v>3.27</v>
+        <v>3.22</v>
       </c>
       <c r="I6" s="0" t="n">
-        <v>19.86</v>
+        <v>19.61</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="89" t="n">
-        <v>46034</v>
+        <v>46049</v>
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
@@ -1186,10 +1192,10 @@
         <v>10</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>327.5</v>
+        <v>326.5</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>3298.26</v>
+        <v>3288.13</v>
       </c>
       <c r="G7" s="0" t="inlineStr">
         <is>
@@ -1197,15 +1203,15 @@
         </is>
       </c>
       <c r="H7" s="0" t="n">
-        <v>3.29</v>
+        <v>3.27</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>19.97</v>
+        <v>19.86</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="89" t="n">
-        <v>46009</v>
+        <v>46034</v>
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
@@ -1221,10 +1227,10 @@
         <v>10</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>303.35</v>
+        <v>327.5</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>3055.04</v>
+        <v>3298.26</v>
       </c>
       <c r="G8" s="0" t="inlineStr">
         <is>
@@ -1232,19 +1238,19 @@
         </is>
       </c>
       <c r="H8" s="0" t="n">
-        <v>3.04</v>
+        <v>3.29</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>18.5</v>
+        <v>19.97</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="89" t="n">
-        <v>46008</v>
+        <v>46009</v>
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C9" s="0" t="inlineStr">
@@ -1256,10 +1262,10 @@
         <v>10</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>307.8</v>
+        <v>303.35</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>3099.86</v>
+        <v>3055.04</v>
       </c>
       <c r="G9" s="0" t="inlineStr">
         <is>
@@ -1267,15 +1273,15 @@
         </is>
       </c>
       <c r="H9" s="0" t="n">
-        <v>3.1</v>
+        <v>3.04</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>18.76</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="89" t="n">
-        <v>46007</v>
+        <v>46008</v>
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
@@ -1291,10 +1297,10 @@
         <v>10</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>310.25</v>
+        <v>307.8</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>3124.51</v>
+        <v>3099.86</v>
       </c>
       <c r="G10" s="0" t="inlineStr">
         <is>
@@ -1302,19 +1308,19 @@
         </is>
       </c>
       <c r="H10" s="0" t="n">
-        <v>3.09</v>
+        <v>3.1</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>18.92</v>
+        <v>18.76</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="89" t="n">
-        <v>46000</v>
+        <v>46007</v>
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C11" s="0" t="inlineStr">
@@ -1326,10 +1332,10 @@
         <v>10</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>312.35</v>
+        <v>310.25</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>3145.61</v>
+        <v>3124.51</v>
       </c>
       <c r="G11" s="0" t="inlineStr">
         <is>
@@ -1337,15 +1343,15 @@
         </is>
       </c>
       <c r="H11" s="0" t="n">
-        <v>3.11</v>
+        <v>3.09</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>19</v>
+        <v>18.92</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="89" t="n">
-        <v>45993</v>
+        <v>46000</v>
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
@@ -1361,10 +1367,10 @@
         <v>10</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>319.35</v>
+        <v>312.35</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>3216.18</v>
+        <v>3145.61</v>
       </c>
       <c r="G12" s="0" t="inlineStr">
         <is>
@@ -1372,15 +1378,15 @@
         </is>
       </c>
       <c r="H12" s="0" t="n">
-        <v>3.21</v>
+        <v>3.11</v>
       </c>
       <c r="I12" s="0" t="n">
-        <v>19.47</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="89" t="n">
-        <v>45982</v>
+        <v>45993</v>
       </c>
       <c r="B13" s="0" t="inlineStr">
         <is>
@@ -1393,13 +1399,13 @@
         </is>
       </c>
       <c r="D13" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>315.7</v>
+        <v>319.35</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>6358.77</v>
+        <v>3216.18</v>
       </c>
       <c r="G13" s="0" t="inlineStr">
         <is>
@@ -1407,15 +1413,15 @@
         </is>
       </c>
       <c r="H13" s="0" t="n">
-        <v>6.31</v>
+        <v>3.21</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>38.46</v>
+        <v>19.47</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="89" t="n">
-        <v>45978</v>
+        <v>45982</v>
       </c>
       <c r="B14" s="0" t="inlineStr">
         <is>
@@ -1431,10 +1437,10 @@
         <v>20</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>331.55</v>
+        <v>315.7</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>6678.07</v>
+        <v>6358.77</v>
       </c>
       <c r="G14" s="0" t="inlineStr">
         <is>
@@ -1442,15 +1448,15 @@
         </is>
       </c>
       <c r="H14" s="0" t="n">
-        <v>6.66</v>
+        <v>6.31</v>
       </c>
       <c r="I14" s="0" t="n">
-        <v>40.41</v>
+        <v>38.46</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="89" t="n">
-        <v>45975</v>
+        <v>45978</v>
       </c>
       <c r="B15" s="0" t="inlineStr">
         <is>
@@ -1466,10 +1472,10 @@
         <v>20</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>316.35</v>
+        <v>331.55</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>6371.79</v>
+        <v>6678.07</v>
       </c>
       <c r="G15" s="0" t="inlineStr">
         <is>
@@ -1477,15 +1483,15 @@
         </is>
       </c>
       <c r="H15" s="0" t="n">
-        <v>6.33</v>
+        <v>6.66</v>
       </c>
       <c r="I15" s="0" t="n">
-        <v>38.46</v>
+        <v>40.41</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="89" t="n">
-        <v>45974</v>
+        <v>45975</v>
       </c>
       <c r="B16" s="0" t="inlineStr">
         <is>
@@ -1498,13 +1504,13 @@
         </is>
       </c>
       <c r="D16" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>317.75</v>
+        <v>316.35</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>3200.04</v>
+        <v>6371.79</v>
       </c>
       <c r="G16" s="0" t="inlineStr">
         <is>
@@ -1512,15 +1518,15 @@
         </is>
       </c>
       <c r="H16" s="0" t="n">
-        <v>3.17</v>
+        <v>6.33</v>
       </c>
       <c r="I16" s="0" t="n">
-        <v>19.37</v>
+        <v>38.46</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="89" t="n">
-        <v>45972</v>
+        <v>45974</v>
       </c>
       <c r="B17" s="0" t="inlineStr">
         <is>
@@ -1536,10 +1542,10 @@
         <v>10</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>317.35</v>
+        <v>317.75</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>3196.03</v>
+        <v>3200.04</v>
       </c>
       <c r="G17" s="0" t="inlineStr">
         <is>
@@ -1547,15 +1553,15 @@
         </is>
       </c>
       <c r="H17" s="0" t="n">
-        <v>3.15</v>
+        <v>3.17</v>
       </c>
       <c r="I17" s="0" t="n">
-        <v>19.38</v>
+        <v>19.37</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="89" t="n">
-        <v>45971</v>
+        <v>45972</v>
       </c>
       <c r="B18" s="0" t="inlineStr">
         <is>
@@ -1568,13 +1574,13 @@
         </is>
       </c>
       <c r="D18" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>318.15</v>
+        <v>317.35</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>6408.02</v>
+        <v>3196.03</v>
       </c>
       <c r="G18" s="0" t="inlineStr">
         <is>
@@ -1582,15 +1588,15 @@
         </is>
       </c>
       <c r="H18" s="0" t="n">
-        <v>6.32</v>
+        <v>3.15</v>
       </c>
       <c r="I18" s="0" t="n">
-        <v>38.7</v>
+        <v>19.38</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="89" t="n">
-        <v>45968</v>
+        <v>45971</v>
       </c>
       <c r="B19" s="0" t="inlineStr">
         <is>
@@ -1606,10 +1612,10 @@
         <v>20</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>315.5</v>
+        <v>318.15</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>6354.78</v>
+        <v>6408.02</v>
       </c>
       <c r="G19" s="0" t="inlineStr">
         <is>
@@ -1617,15 +1623,15 @@
         </is>
       </c>
       <c r="H19" s="0" t="n">
-        <v>6.29</v>
+        <v>6.32</v>
       </c>
       <c r="I19" s="0" t="n">
-        <v>38.49</v>
+        <v>38.7</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="89" t="n">
-        <v>45967</v>
+        <v>45968</v>
       </c>
       <c r="B20" s="0" t="inlineStr">
         <is>
@@ -1641,10 +1647,10 @@
         <v>20</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>320.3</v>
+        <v>315.5</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>6451.44</v>
+        <v>6354.78</v>
       </c>
       <c r="G20" s="0" t="inlineStr">
         <is>
@@ -1652,15 +1658,15 @@
         </is>
       </c>
       <c r="H20" s="0" t="n">
-        <v>6.45</v>
+        <v>6.29</v>
       </c>
       <c r="I20" s="0" t="n">
-        <v>38.99</v>
+        <v>38.49</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="89" t="n">
-        <v>45961</v>
+        <v>45967</v>
       </c>
       <c r="B21" s="0" t="inlineStr">
         <is>
@@ -1676,10 +1682,10 @@
         <v>20</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>329.9</v>
+        <v>320.3</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>6644.77</v>
+        <v>6451.44</v>
       </c>
       <c r="G21" s="0" t="inlineStr">
         <is>
@@ -1687,15 +1693,15 @@
         </is>
       </c>
       <c r="H21" s="0" t="n">
-        <v>6.58</v>
+        <v>6.45</v>
       </c>
       <c r="I21" s="0" t="n">
-        <v>40.19</v>
+        <v>38.99</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="89" t="n">
-        <v>45959</v>
+        <v>45961</v>
       </c>
       <c r="B22" s="0" t="inlineStr">
         <is>
@@ -1708,13 +1714,13 @@
         </is>
       </c>
       <c r="D22" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>328.3</v>
+        <v>329.9</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>9918.719999999999</v>
+        <v>6644.77</v>
       </c>
       <c r="G22" s="0" t="inlineStr">
         <is>
@@ -1722,15 +1728,15 @@
         </is>
       </c>
       <c r="H22" s="0" t="n">
-        <v>9.83</v>
+        <v>6.58</v>
       </c>
       <c r="I22" s="0" t="n">
-        <v>59.89</v>
+        <v>40.19</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="89" t="n">
-        <v>45957</v>
+        <v>45959</v>
       </c>
       <c r="B23" s="0" t="inlineStr">
         <is>
@@ -1743,13 +1749,13 @@
         </is>
       </c>
       <c r="D23" s="0" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>329.8</v>
+        <v>328.3</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>3321.4</v>
+        <v>9918.719999999999</v>
       </c>
       <c r="G23" s="0" t="inlineStr">
         <is>
@@ -1757,15 +1763,15 @@
         </is>
       </c>
       <c r="H23" s="0" t="n">
-        <v>3.31</v>
+        <v>9.83</v>
       </c>
       <c r="I23" s="0" t="n">
-        <v>20.09</v>
+        <v>59.89</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="89" t="n">
-        <v>45954</v>
+        <v>45957</v>
       </c>
       <c r="B24" s="0" t="inlineStr">
         <is>
@@ -1778,13 +1784,13 @@
         </is>
       </c>
       <c r="D24" s="0" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>331.45</v>
+        <v>329.8</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>10014.1</v>
+        <v>3321.4</v>
       </c>
       <c r="G24" s="0" t="inlineStr">
         <is>
@@ -1792,19 +1798,19 @@
         </is>
       </c>
       <c r="H24" s="0" t="n">
-        <v>9.960000000000001</v>
+        <v>3.31</v>
       </c>
       <c r="I24" s="0" t="n">
-        <v>60.64</v>
+        <v>20.09</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="89" t="n">
-        <v>45953</v>
+        <v>45954</v>
       </c>
       <c r="B25" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C25" s="0" t="inlineStr">
@@ -1813,13 +1819,13 @@
         </is>
       </c>
       <c r="D25" s="0" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>333.95</v>
+        <v>331.45</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>6726.39</v>
+        <v>10014.1</v>
       </c>
       <c r="G25" s="0" t="inlineStr">
         <is>
@@ -1827,19 +1833,19 @@
         </is>
       </c>
       <c r="H25" s="0" t="n">
-        <v>6.66</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="I25" s="0" t="n">
-        <v>40.73</v>
+        <v>60.64</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="89" t="n">
-        <v>45950</v>
+        <v>45953</v>
       </c>
       <c r="B26" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C26" s="0" t="inlineStr">
@@ -1848,13 +1854,13 @@
         </is>
       </c>
       <c r="D26" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>330.7</v>
+        <v>333.95</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>13321.59</v>
+        <v>6726.39</v>
       </c>
       <c r="G26" s="0" t="inlineStr">
         <is>
@@ -1862,15 +1868,15 @@
         </is>
       </c>
       <c r="H26" s="0" t="n">
-        <v>13.22</v>
+        <v>6.66</v>
       </c>
       <c r="I26" s="0" t="n">
-        <v>80.37</v>
+        <v>40.73</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="89" t="n">
-        <v>45947</v>
+        <v>45950</v>
       </c>
       <c r="B27" s="0" t="inlineStr">
         <is>
@@ -1883,13 +1889,13 @@
         </is>
       </c>
       <c r="D27" s="0" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>333.55</v>
+        <v>330.7</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>335.91</v>
+        <v>13321.59</v>
       </c>
       <c r="G27" s="0" t="inlineStr">
         <is>
@@ -1897,10 +1903,10 @@
         </is>
       </c>
       <c r="H27" s="0" t="n">
-        <v>0.33</v>
+        <v>13.22</v>
       </c>
       <c r="I27" s="0" t="n">
-        <v>2.03</v>
+        <v>80.37</v>
       </c>
     </row>
     <row r="28">
@@ -1953,13 +1959,13 @@
         </is>
       </c>
       <c r="D29" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E29" s="0" t="n">
         <v>333.55</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>671.83</v>
+        <v>335.91</v>
       </c>
       <c r="G29" s="0" t="inlineStr">
         <is>
@@ -1967,10 +1973,10 @@
         </is>
       </c>
       <c r="H29" s="0" t="n">
-        <v>0.67</v>
+        <v>0.33</v>
       </c>
       <c r="I29" s="0" t="n">
-        <v>4.06</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="30">
@@ -2128,13 +2134,13 @@
         </is>
       </c>
       <c r="D34" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E34" s="0" t="n">
         <v>333.55</v>
       </c>
       <c r="F34" s="0" t="n">
-        <v>335.91</v>
+        <v>671.83</v>
       </c>
       <c r="G34" s="0" t="inlineStr">
         <is>
@@ -2142,10 +2148,10 @@
         </is>
       </c>
       <c r="H34" s="0" t="n">
-        <v>0.33</v>
+        <v>0.67</v>
       </c>
       <c r="I34" s="0" t="n">
-        <v>2.03</v>
+        <v>4.06</v>
       </c>
     </row>
     <row r="35">
@@ -2163,13 +2169,13 @@
         </is>
       </c>
       <c r="D35" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E35" s="0" t="n">
         <v>333.55</v>
       </c>
       <c r="F35" s="0" t="n">
-        <v>671.83</v>
+        <v>335.91</v>
       </c>
       <c r="G35" s="0" t="inlineStr">
         <is>
@@ -2177,10 +2183,10 @@
         </is>
       </c>
       <c r="H35" s="0" t="n">
-        <v>0.67</v>
+        <v>0.33</v>
       </c>
       <c r="I35" s="0" t="n">
-        <v>4.06</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="36">
@@ -2198,13 +2204,13 @@
         </is>
       </c>
       <c r="D36" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E36" s="0" t="n">
         <v>333.55</v>
       </c>
       <c r="F36" s="0" t="n">
-        <v>335.91</v>
+        <v>671.83</v>
       </c>
       <c r="G36" s="0" t="inlineStr">
         <is>
@@ -2212,10 +2218,10 @@
         </is>
       </c>
       <c r="H36" s="0" t="n">
-        <v>0.33</v>
+        <v>0.67</v>
       </c>
       <c r="I36" s="0" t="n">
-        <v>2.03</v>
+        <v>4.06</v>
       </c>
     </row>
     <row r="37">
@@ -2268,13 +2274,13 @@
         </is>
       </c>
       <c r="D38" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E38" s="0" t="n">
         <v>333.55</v>
       </c>
       <c r="F38" s="0" t="n">
-        <v>671.83</v>
+        <v>335.91</v>
       </c>
       <c r="G38" s="0" t="inlineStr">
         <is>
@@ -2282,10 +2288,10 @@
         </is>
       </c>
       <c r="H38" s="0" t="n">
-        <v>0.67</v>
+        <v>0.33</v>
       </c>
       <c r="I38" s="0" t="n">
-        <v>4.06</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="39">
@@ -2303,13 +2309,13 @@
         </is>
       </c>
       <c r="D39" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E39" s="0" t="n">
         <v>333.55</v>
       </c>
       <c r="F39" s="0" t="n">
-        <v>335.91</v>
+        <v>671.83</v>
       </c>
       <c r="G39" s="0" t="inlineStr">
         <is>
@@ -2317,10 +2323,10 @@
         </is>
       </c>
       <c r="H39" s="0" t="n">
-        <v>0.33</v>
+        <v>0.67</v>
       </c>
       <c r="I39" s="0" t="n">
-        <v>2.03</v>
+        <v>4.06</v>
       </c>
     </row>
     <row r="40">
@@ -2338,13 +2344,13 @@
         </is>
       </c>
       <c r="D40" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E40" s="0" t="n">
         <v>333.55</v>
       </c>
       <c r="F40" s="0" t="n">
-        <v>671.83</v>
+        <v>335.91</v>
       </c>
       <c r="G40" s="0" t="inlineStr">
         <is>
@@ -2352,10 +2358,10 @@
         </is>
       </c>
       <c r="H40" s="0" t="n">
-        <v>0.67</v>
+        <v>0.33</v>
       </c>
       <c r="I40" s="0" t="n">
-        <v>4.06</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="41">
@@ -2478,13 +2484,13 @@
         </is>
       </c>
       <c r="D44" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E44" s="0" t="n">
         <v>333.55</v>
       </c>
       <c r="F44" s="0" t="n">
-        <v>335.91</v>
+        <v>671.83</v>
       </c>
       <c r="G44" s="0" t="inlineStr">
         <is>
@@ -2492,10 +2498,10 @@
         </is>
       </c>
       <c r="H44" s="0" t="n">
-        <v>0.33</v>
+        <v>0.67</v>
       </c>
       <c r="I44" s="0" t="n">
-        <v>2.03</v>
+        <v>4.06</v>
       </c>
     </row>
     <row r="45">
@@ -2535,11 +2541,11 @@
     </row>
     <row r="46">
       <c r="A46" s="89" t="n">
-        <v>45943</v>
+        <v>45947</v>
       </c>
       <c r="B46" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C46" s="0" t="inlineStr">
@@ -2548,13 +2554,13 @@
         </is>
       </c>
       <c r="D46" s="0" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E46" s="0" t="n">
-        <v>339.1</v>
+        <v>333.55</v>
       </c>
       <c r="F46" s="0" t="n">
-        <v>3414.95</v>
+        <v>335.91</v>
       </c>
       <c r="G46" s="0" t="inlineStr">
         <is>
@@ -2562,19 +2568,19 @@
         </is>
       </c>
       <c r="H46" s="0" t="n">
-        <v>3.2</v>
+        <v>0.33</v>
       </c>
       <c r="I46" s="0" t="n">
-        <v>20.75</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="89" t="n">
-        <v>45940</v>
+        <v>45943</v>
       </c>
       <c r="B47" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C47" s="0" t="inlineStr">
@@ -2583,13 +2589,13 @@
         </is>
       </c>
       <c r="D47" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E47" s="0" t="n">
-        <v>345.05</v>
+        <v>339.1</v>
       </c>
       <c r="F47" s="0" t="n">
-        <v>6950.08</v>
+        <v>3414.95</v>
       </c>
       <c r="G47" s="0" t="inlineStr">
         <is>
@@ -2597,107 +2603,50 @@
         </is>
       </c>
       <c r="H47" s="0" t="n">
-        <v>7</v>
+        <v>3.2</v>
       </c>
       <c r="I47" s="0" t="n">
-        <v>42.08</v>
+        <v>20.75</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="38" t="n">
-        <v>45950</v>
-      </c>
-      <c r="B48" s="39" t="inlineStr">
+      <c r="A48" s="89" t="n">
+        <v>45940</v>
+      </c>
+      <c r="B48" s="0" t="inlineStr">
         <is>
           <t>NSE</t>
         </is>
       </c>
-      <c r="C48" s="39" t="inlineStr">
+      <c r="C48" s="0" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D48" s="40" t="n">
-        <v>40</v>
-      </c>
-      <c r="E48" s="41" t="n">
-        <v>333.04</v>
-      </c>
-      <c r="F48" s="42">
-        <f>D5*E5</f>
-        <v/>
-      </c>
-      <c r="G48" s="39" t="inlineStr">
+      <c r="D48" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="E48" s="0" t="n">
+        <v>345.05</v>
+      </c>
+      <c r="F48" s="0" t="n">
+        <v>6950.08</v>
+      </c>
+      <c r="G48" s="0" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H48" s="40" t="n"/>
-      <c r="I48" s="40" t="n"/>
-      <c r="J48" s="43">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K48" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="L48" s="45">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="M48" s="45">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
-        <v/>
-      </c>
-      <c r="N48" s="46">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
-        <v/>
-      </c>
-      <c r="O48" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="P48" s="45">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="Q48" s="45">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
-        <v/>
-      </c>
-      <c r="R48" s="45">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="S48" s="47">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="T48" s="48">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="U48" s="48">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
-        <v/>
-      </c>
-      <c r="V48" s="48">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="W48" s="49" t="n"/>
-      <c r="X48" s="49" t="n"/>
-      <c r="Y48" s="50" t="n"/>
-      <c r="Z48" s="49" t="n"/>
-      <c r="AA48" s="49" t="n"/>
-      <c r="AB48" s="51" t="n"/>
-      <c r="AC48" s="52" t="n"/>
-      <c r="AD48" s="53" t="n"/>
+      <c r="H48" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="I48" s="0" t="n">
+        <v>42.08</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="38" t="n">
-        <v>45947</v>
+        <v>45950</v>
       </c>
       <c r="B49" s="39" t="inlineStr">
         <is>
@@ -2710,13 +2659,13 @@
         </is>
       </c>
       <c r="D49" s="40" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E49" s="41" t="n">
-        <v>335.92</v>
+        <v>333.04</v>
       </c>
       <c r="F49" s="42">
-        <f>D6*E6</f>
+        <f>D5*E5</f>
         <v/>
       </c>
       <c r="G49" s="39" t="inlineStr">
@@ -2731,51 +2680,51 @@
         <v/>
       </c>
       <c r="K49" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="L49" s="45">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="M49" s="45">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
         <v/>
       </c>
       <c r="N49" s="46">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
         <v/>
       </c>
       <c r="O49" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="P49" s="45">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="Q49" s="45">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
         <v/>
       </c>
       <c r="R49" s="45">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="S49" s="47">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="T49" s="48">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="U49" s="48">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
         <v/>
       </c>
       <c r="V49" s="48">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="W49" s="49" t="n"/>
@@ -2789,7 +2738,7 @@
     </row>
     <row r="50">
       <c r="A50" s="38" t="n">
-        <v>45943</v>
+        <v>45947</v>
       </c>
       <c r="B50" s="39" t="inlineStr">
         <is>
@@ -2802,13 +2751,13 @@
         </is>
       </c>
       <c r="D50" s="40" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E50" s="41" t="n">
-        <v>341.5</v>
+        <v>335.92</v>
       </c>
       <c r="F50" s="42">
-        <f>D7*E7</f>
+        <f>D6*E6</f>
         <v/>
       </c>
       <c r="G50" s="39" t="inlineStr">
@@ -2823,51 +2772,51 @@
         <v/>
       </c>
       <c r="K50" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="L50" s="45">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="M50" s="45">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
         <v/>
       </c>
       <c r="N50" s="46">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
         <v/>
       </c>
       <c r="O50" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="P50" s="45">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="Q50" s="45">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
         <v/>
       </c>
       <c r="R50" s="45">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
         <v/>
       </c>
       <c r="S50" s="47">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="T50" s="48">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="U50" s="48">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
         <v/>
       </c>
       <c r="V50" s="48">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
         <v/>
       </c>
       <c r="W50" s="49" t="n"/>
@@ -2881,7 +2830,7 @@
     </row>
     <row r="51">
       <c r="A51" s="38" t="n">
-        <v>45940</v>
+        <v>45943</v>
       </c>
       <c r="B51" s="39" t="inlineStr">
         <is>
@@ -2894,13 +2843,13 @@
         </is>
       </c>
       <c r="D51" s="40" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E51" s="41" t="n">
-        <v>347.5</v>
+        <v>341.5</v>
       </c>
       <c r="F51" s="42">
-        <f>D8*E8</f>
+        <f>D7*E7</f>
         <v/>
       </c>
       <c r="G51" s="39" t="inlineStr">
@@ -2915,51 +2864,51 @@
         <v/>
       </c>
       <c r="K51" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="L51" s="45">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="M51" s="45">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
         <v/>
       </c>
       <c r="N51" s="46">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
         <v/>
       </c>
       <c r="O51" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="P51" s="45">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="Q51" s="45">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
         <v/>
       </c>
       <c r="R51" s="45">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="S51" s="47">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="T51" s="48">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="U51" s="48">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
         <v/>
       </c>
       <c r="V51" s="48">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="W51" s="49" t="n"/>
@@ -2972,20 +2921,96 @@
       <c r="AD51" s="53" t="n"/>
     </row>
     <row r="52">
-      <c r="E52" s="54" t="n"/>
-      <c r="F52" s="54" t="n"/>
-      <c r="G52" s="55" t="n"/>
-      <c r="J52" s="54" t="n"/>
-      <c r="K52" s="54" t="n"/>
-      <c r="L52" s="54" t="n"/>
-      <c r="M52" s="57" t="n"/>
-      <c r="W52" s="54" t="n"/>
-      <c r="X52" s="54" t="n"/>
-      <c r="Y52" s="54" t="n"/>
-      <c r="Z52" s="54" t="n"/>
-      <c r="AA52" s="54" t="n"/>
-      <c r="AB52" s="54" t="n"/>
-      <c r="AC52" s="54" t="n"/>
+      <c r="A52" s="38" t="n">
+        <v>45940</v>
+      </c>
+      <c r="B52" s="39" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C52" s="39" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D52" s="40" t="n">
+        <v>20</v>
+      </c>
+      <c r="E52" s="41" t="n">
+        <v>347.5</v>
+      </c>
+      <c r="F52" s="42">
+        <f>D8*E8</f>
+        <v/>
+      </c>
+      <c r="G52" s="39" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H52" s="40" t="n"/>
+      <c r="I52" s="40" t="n"/>
+      <c r="J52" s="43">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K52" s="44">
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/sum(F8:I8), "")</f>
+        <v/>
+      </c>
+      <c r="L52" s="45">
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <v/>
+      </c>
+      <c r="M52" s="45">
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
+        <v/>
+      </c>
+      <c r="N52" s="46">
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
+        <v/>
+      </c>
+      <c r="O52" s="44">
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/sum(F8:I8), "")</f>
+        <v/>
+      </c>
+      <c r="P52" s="45">
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <v/>
+      </c>
+      <c r="Q52" s="45">
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
+        <v/>
+      </c>
+      <c r="R52" s="45">
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
+        <v/>
+      </c>
+      <c r="S52" s="47">
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/sum(F8:I8), "")</f>
+        <v/>
+      </c>
+      <c r="T52" s="48">
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <v/>
+      </c>
+      <c r="U52" s="48">
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
+        <v/>
+      </c>
+      <c r="V52" s="48">
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
+        <v/>
+      </c>
+      <c r="W52" s="49" t="n"/>
+      <c r="X52" s="49" t="n"/>
+      <c r="Y52" s="50" t="n"/>
+      <c r="Z52" s="49" t="n"/>
+      <c r="AA52" s="49" t="n"/>
+      <c r="AB52" s="51" t="n"/>
+      <c r="AC52" s="52" t="n"/>
+      <c r="AD52" s="53" t="n"/>
     </row>
     <row r="53">
       <c r="E53" s="54" t="n"/>
@@ -17954,6 +17979,7 @@
       <c r="J988" s="54" t="n"/>
       <c r="K988" s="54" t="n"/>
       <c r="L988" s="54" t="n"/>
+      <c r="M988" s="57" t="n"/>
       <c r="W988" s="54" t="n"/>
       <c r="X988" s="54" t="n"/>
       <c r="Y988" s="54" t="n"/>
@@ -18201,6 +18227,21 @@
       <c r="AA1004" s="54" t="n"/>
       <c r="AB1004" s="54" t="n"/>
       <c r="AC1004" s="54" t="n"/>
+    </row>
+    <row r="1005">
+      <c r="E1005" s="54" t="n"/>
+      <c r="F1005" s="54" t="n"/>
+      <c r="G1005" s="55" t="n"/>
+      <c r="J1005" s="54" t="n"/>
+      <c r="K1005" s="54" t="n"/>
+      <c r="L1005" s="54" t="n"/>
+      <c r="W1005" s="54" t="n"/>
+      <c r="X1005" s="54" t="n"/>
+      <c r="Y1005" s="54" t="n"/>
+      <c r="Z1005" s="54" t="n"/>
+      <c r="AA1005" s="54" t="n"/>
+      <c r="AB1005" s="54" t="n"/>
+      <c r="AC1005" s="54" t="n"/>
     </row>
   </sheetData>
   <autoFilter ref="$A$4:$AO$38"/>

--- a/dumps/Stocks/Rail Vikas Nigam.xlsx
+++ b/dumps/Stocks/Rail Vikas Nigam.xlsx
@@ -752,7 +752,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP1005"/>
+  <dimension ref="A1:AP1006"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
@@ -1102,7 +1102,7 @@
     </row>
     <row r="5">
       <c r="A5" s="90" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -1118,21 +1118,21 @@
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>315.4</v>
+        <v>317.85</v>
       </c>
       <c r="F5" t="n">
-        <v>3176.37</v>
+        <v>3201.04</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>CN#252611665409</t>
+          <t>CN#252611730667</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3.15</v>
+        <v>3.18</v>
       </c>
       <c r="I5" t="n">
-        <v>19.22</v>
+        <v>19.36</v>
       </c>
       <c r="J5">
         <f>Index!$C$2</f>
@@ -1140,8 +1140,8 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="89" t="n">
-        <v>46057</v>
+      <c r="A6" s="90" t="n">
+        <v>46062</v>
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
@@ -1157,26 +1157,30 @@
         <v>10</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>321.15</v>
+        <v>315.4</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>3234.33</v>
+        <v>3176.37</v>
       </c>
       <c r="G6" s="0" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>CN#252611665409</t>
         </is>
       </c>
       <c r="H6" s="0" t="n">
-        <v>3.22</v>
+        <v>3.15</v>
       </c>
       <c r="I6" s="0" t="n">
-        <v>19.61</v>
+        <v>19.22</v>
+      </c>
+      <c r="J6" s="0">
+        <f>Index!$C$2</f>
+        <v/>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="89" t="n">
-        <v>46049</v>
+        <v>46057</v>
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
@@ -1192,10 +1196,10 @@
         <v>10</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>326.5</v>
+        <v>321.15</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>3288.13</v>
+        <v>3234.33</v>
       </c>
       <c r="G7" s="0" t="inlineStr">
         <is>
@@ -1203,15 +1207,15 @@
         </is>
       </c>
       <c r="H7" s="0" t="n">
-        <v>3.27</v>
+        <v>3.22</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>19.86</v>
+        <v>19.61</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="89" t="n">
-        <v>46034</v>
+        <v>46049</v>
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
@@ -1227,10 +1231,10 @@
         <v>10</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>327.5</v>
+        <v>326.5</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>3298.26</v>
+        <v>3288.13</v>
       </c>
       <c r="G8" s="0" t="inlineStr">
         <is>
@@ -1238,15 +1242,15 @@
         </is>
       </c>
       <c r="H8" s="0" t="n">
-        <v>3.29</v>
+        <v>3.27</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>19.97</v>
+        <v>19.86</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="89" t="n">
-        <v>46009</v>
+        <v>46034</v>
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
@@ -1262,10 +1266,10 @@
         <v>10</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>303.35</v>
+        <v>327.5</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>3055.04</v>
+        <v>3298.26</v>
       </c>
       <c r="G9" s="0" t="inlineStr">
         <is>
@@ -1273,19 +1277,19 @@
         </is>
       </c>
       <c r="H9" s="0" t="n">
-        <v>3.04</v>
+        <v>3.29</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>18.5</v>
+        <v>19.97</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="89" t="n">
-        <v>46008</v>
+        <v>46009</v>
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C10" s="0" t="inlineStr">
@@ -1297,10 +1301,10 @@
         <v>10</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>307.8</v>
+        <v>303.35</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>3099.86</v>
+        <v>3055.04</v>
       </c>
       <c r="G10" s="0" t="inlineStr">
         <is>
@@ -1308,15 +1312,15 @@
         </is>
       </c>
       <c r="H10" s="0" t="n">
-        <v>3.1</v>
+        <v>3.04</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>18.76</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="89" t="n">
-        <v>46007</v>
+        <v>46008</v>
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
@@ -1332,10 +1336,10 @@
         <v>10</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>310.25</v>
+        <v>307.8</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>3124.51</v>
+        <v>3099.86</v>
       </c>
       <c r="G11" s="0" t="inlineStr">
         <is>
@@ -1343,19 +1347,19 @@
         </is>
       </c>
       <c r="H11" s="0" t="n">
-        <v>3.09</v>
+        <v>3.1</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>18.92</v>
+        <v>18.76</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="89" t="n">
-        <v>46000</v>
+        <v>46007</v>
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C12" s="0" t="inlineStr">
@@ -1367,10 +1371,10 @@
         <v>10</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>312.35</v>
+        <v>310.25</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>3145.61</v>
+        <v>3124.51</v>
       </c>
       <c r="G12" s="0" t="inlineStr">
         <is>
@@ -1378,15 +1382,15 @@
         </is>
       </c>
       <c r="H12" s="0" t="n">
-        <v>3.11</v>
+        <v>3.09</v>
       </c>
       <c r="I12" s="0" t="n">
-        <v>19</v>
+        <v>18.92</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="89" t="n">
-        <v>45993</v>
+        <v>46000</v>
       </c>
       <c r="B13" s="0" t="inlineStr">
         <is>
@@ -1402,10 +1406,10 @@
         <v>10</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>319.35</v>
+        <v>312.35</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>3216.18</v>
+        <v>3145.61</v>
       </c>
       <c r="G13" s="0" t="inlineStr">
         <is>
@@ -1413,15 +1417,15 @@
         </is>
       </c>
       <c r="H13" s="0" t="n">
-        <v>3.21</v>
+        <v>3.11</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>19.47</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="89" t="n">
-        <v>45982</v>
+        <v>45993</v>
       </c>
       <c r="B14" s="0" t="inlineStr">
         <is>
@@ -1434,13 +1438,13 @@
         </is>
       </c>
       <c r="D14" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>315.7</v>
+        <v>319.35</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>6358.77</v>
+        <v>3216.18</v>
       </c>
       <c r="G14" s="0" t="inlineStr">
         <is>
@@ -1448,15 +1452,15 @@
         </is>
       </c>
       <c r="H14" s="0" t="n">
-        <v>6.31</v>
+        <v>3.21</v>
       </c>
       <c r="I14" s="0" t="n">
-        <v>38.46</v>
+        <v>19.47</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="89" t="n">
-        <v>45978</v>
+        <v>45982</v>
       </c>
       <c r="B15" s="0" t="inlineStr">
         <is>
@@ -1472,10 +1476,10 @@
         <v>20</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>331.55</v>
+        <v>315.7</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>6678.07</v>
+        <v>6358.77</v>
       </c>
       <c r="G15" s="0" t="inlineStr">
         <is>
@@ -1483,15 +1487,15 @@
         </is>
       </c>
       <c r="H15" s="0" t="n">
-        <v>6.66</v>
+        <v>6.31</v>
       </c>
       <c r="I15" s="0" t="n">
-        <v>40.41</v>
+        <v>38.46</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="89" t="n">
-        <v>45975</v>
+        <v>45978</v>
       </c>
       <c r="B16" s="0" t="inlineStr">
         <is>
@@ -1507,10 +1511,10 @@
         <v>20</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>316.35</v>
+        <v>331.55</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>6371.79</v>
+        <v>6678.07</v>
       </c>
       <c r="G16" s="0" t="inlineStr">
         <is>
@@ -1518,15 +1522,15 @@
         </is>
       </c>
       <c r="H16" s="0" t="n">
-        <v>6.33</v>
+        <v>6.66</v>
       </c>
       <c r="I16" s="0" t="n">
-        <v>38.46</v>
+        <v>40.41</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="89" t="n">
-        <v>45974</v>
+        <v>45975</v>
       </c>
       <c r="B17" s="0" t="inlineStr">
         <is>
@@ -1539,13 +1543,13 @@
         </is>
       </c>
       <c r="D17" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>317.75</v>
+        <v>316.35</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>3200.04</v>
+        <v>6371.79</v>
       </c>
       <c r="G17" s="0" t="inlineStr">
         <is>
@@ -1553,15 +1557,15 @@
         </is>
       </c>
       <c r="H17" s="0" t="n">
-        <v>3.17</v>
+        <v>6.33</v>
       </c>
       <c r="I17" s="0" t="n">
-        <v>19.37</v>
+        <v>38.46</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="89" t="n">
-        <v>45972</v>
+        <v>45974</v>
       </c>
       <c r="B18" s="0" t="inlineStr">
         <is>
@@ -1577,10 +1581,10 @@
         <v>10</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>317.35</v>
+        <v>317.75</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>3196.03</v>
+        <v>3200.04</v>
       </c>
       <c r="G18" s="0" t="inlineStr">
         <is>
@@ -1588,15 +1592,15 @@
         </is>
       </c>
       <c r="H18" s="0" t="n">
-        <v>3.15</v>
+        <v>3.17</v>
       </c>
       <c r="I18" s="0" t="n">
-        <v>19.38</v>
+        <v>19.37</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="89" t="n">
-        <v>45971</v>
+        <v>45972</v>
       </c>
       <c r="B19" s="0" t="inlineStr">
         <is>
@@ -1609,13 +1613,13 @@
         </is>
       </c>
       <c r="D19" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>318.15</v>
+        <v>317.35</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>6408.02</v>
+        <v>3196.03</v>
       </c>
       <c r="G19" s="0" t="inlineStr">
         <is>
@@ -1623,15 +1627,15 @@
         </is>
       </c>
       <c r="H19" s="0" t="n">
-        <v>6.32</v>
+        <v>3.15</v>
       </c>
       <c r="I19" s="0" t="n">
-        <v>38.7</v>
+        <v>19.38</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="89" t="n">
-        <v>45968</v>
+        <v>45971</v>
       </c>
       <c r="B20" s="0" t="inlineStr">
         <is>
@@ -1647,10 +1651,10 @@
         <v>20</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>315.5</v>
+        <v>318.15</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>6354.78</v>
+        <v>6408.02</v>
       </c>
       <c r="G20" s="0" t="inlineStr">
         <is>
@@ -1658,15 +1662,15 @@
         </is>
       </c>
       <c r="H20" s="0" t="n">
-        <v>6.29</v>
+        <v>6.32</v>
       </c>
       <c r="I20" s="0" t="n">
-        <v>38.49</v>
+        <v>38.7</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="89" t="n">
-        <v>45967</v>
+        <v>45968</v>
       </c>
       <c r="B21" s="0" t="inlineStr">
         <is>
@@ -1682,10 +1686,10 @@
         <v>20</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>320.3</v>
+        <v>315.5</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>6451.44</v>
+        <v>6354.78</v>
       </c>
       <c r="G21" s="0" t="inlineStr">
         <is>
@@ -1693,15 +1697,15 @@
         </is>
       </c>
       <c r="H21" s="0" t="n">
-        <v>6.45</v>
+        <v>6.29</v>
       </c>
       <c r="I21" s="0" t="n">
-        <v>38.99</v>
+        <v>38.49</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="89" t="n">
-        <v>45961</v>
+        <v>45967</v>
       </c>
       <c r="B22" s="0" t="inlineStr">
         <is>
@@ -1717,10 +1721,10 @@
         <v>20</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>329.9</v>
+        <v>320.3</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>6644.77</v>
+        <v>6451.44</v>
       </c>
       <c r="G22" s="0" t="inlineStr">
         <is>
@@ -1728,15 +1732,15 @@
         </is>
       </c>
       <c r="H22" s="0" t="n">
-        <v>6.58</v>
+        <v>6.45</v>
       </c>
       <c r="I22" s="0" t="n">
-        <v>40.19</v>
+        <v>38.99</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="89" t="n">
-        <v>45959</v>
+        <v>45961</v>
       </c>
       <c r="B23" s="0" t="inlineStr">
         <is>
@@ -1749,13 +1753,13 @@
         </is>
       </c>
       <c r="D23" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>328.3</v>
+        <v>329.9</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>9918.719999999999</v>
+        <v>6644.77</v>
       </c>
       <c r="G23" s="0" t="inlineStr">
         <is>
@@ -1763,15 +1767,15 @@
         </is>
       </c>
       <c r="H23" s="0" t="n">
-        <v>9.83</v>
+        <v>6.58</v>
       </c>
       <c r="I23" s="0" t="n">
-        <v>59.89</v>
+        <v>40.19</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="89" t="n">
-        <v>45957</v>
+        <v>45959</v>
       </c>
       <c r="B24" s="0" t="inlineStr">
         <is>
@@ -1784,13 +1788,13 @@
         </is>
       </c>
       <c r="D24" s="0" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>329.8</v>
+        <v>328.3</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>3321.4</v>
+        <v>9918.719999999999</v>
       </c>
       <c r="G24" s="0" t="inlineStr">
         <is>
@@ -1798,15 +1802,15 @@
         </is>
       </c>
       <c r="H24" s="0" t="n">
-        <v>3.31</v>
+        <v>9.83</v>
       </c>
       <c r="I24" s="0" t="n">
-        <v>20.09</v>
+        <v>59.89</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="89" t="n">
-        <v>45954</v>
+        <v>45957</v>
       </c>
       <c r="B25" s="0" t="inlineStr">
         <is>
@@ -1819,13 +1823,13 @@
         </is>
       </c>
       <c r="D25" s="0" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>331.45</v>
+        <v>329.8</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>10014.1</v>
+        <v>3321.4</v>
       </c>
       <c r="G25" s="0" t="inlineStr">
         <is>
@@ -1833,19 +1837,19 @@
         </is>
       </c>
       <c r="H25" s="0" t="n">
-        <v>9.960000000000001</v>
+        <v>3.31</v>
       </c>
       <c r="I25" s="0" t="n">
-        <v>60.64</v>
+        <v>20.09</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="89" t="n">
-        <v>45953</v>
+        <v>45954</v>
       </c>
       <c r="B26" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C26" s="0" t="inlineStr">
@@ -1854,13 +1858,13 @@
         </is>
       </c>
       <c r="D26" s="0" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>333.95</v>
+        <v>331.45</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>6726.39</v>
+        <v>10014.1</v>
       </c>
       <c r="G26" s="0" t="inlineStr">
         <is>
@@ -1868,19 +1872,19 @@
         </is>
       </c>
       <c r="H26" s="0" t="n">
-        <v>6.66</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="I26" s="0" t="n">
-        <v>40.73</v>
+        <v>60.64</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="89" t="n">
-        <v>45950</v>
+        <v>45953</v>
       </c>
       <c r="B27" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C27" s="0" t="inlineStr">
@@ -1889,13 +1893,13 @@
         </is>
       </c>
       <c r="D27" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>330.7</v>
+        <v>333.95</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>13321.59</v>
+        <v>6726.39</v>
       </c>
       <c r="G27" s="0" t="inlineStr">
         <is>
@@ -1903,15 +1907,15 @@
         </is>
       </c>
       <c r="H27" s="0" t="n">
-        <v>13.22</v>
+        <v>6.66</v>
       </c>
       <c r="I27" s="0" t="n">
-        <v>80.37</v>
+        <v>40.73</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="89" t="n">
-        <v>45947</v>
+        <v>45950</v>
       </c>
       <c r="B28" s="0" t="inlineStr">
         <is>
@@ -1924,13 +1928,13 @@
         </is>
       </c>
       <c r="D28" s="0" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>333.55</v>
+        <v>330.7</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>335.91</v>
+        <v>13321.59</v>
       </c>
       <c r="G28" s="0" t="inlineStr">
         <is>
@@ -1938,10 +1942,10 @@
         </is>
       </c>
       <c r="H28" s="0" t="n">
-        <v>0.33</v>
+        <v>13.22</v>
       </c>
       <c r="I28" s="0" t="n">
-        <v>2.03</v>
+        <v>80.37</v>
       </c>
     </row>
     <row r="29">
@@ -1994,13 +1998,13 @@
         </is>
       </c>
       <c r="D30" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E30" s="0" t="n">
         <v>333.55</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>671.83</v>
+        <v>335.91</v>
       </c>
       <c r="G30" s="0" t="inlineStr">
         <is>
@@ -2008,10 +2012,10 @@
         </is>
       </c>
       <c r="H30" s="0" t="n">
-        <v>0.67</v>
+        <v>0.33</v>
       </c>
       <c r="I30" s="0" t="n">
-        <v>4.06</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="31">
@@ -2169,13 +2173,13 @@
         </is>
       </c>
       <c r="D35" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E35" s="0" t="n">
         <v>333.55</v>
       </c>
       <c r="F35" s="0" t="n">
-        <v>335.91</v>
+        <v>671.83</v>
       </c>
       <c r="G35" s="0" t="inlineStr">
         <is>
@@ -2183,10 +2187,10 @@
         </is>
       </c>
       <c r="H35" s="0" t="n">
-        <v>0.33</v>
+        <v>0.67</v>
       </c>
       <c r="I35" s="0" t="n">
-        <v>2.03</v>
+        <v>4.06</v>
       </c>
     </row>
     <row r="36">
@@ -2204,13 +2208,13 @@
         </is>
       </c>
       <c r="D36" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E36" s="0" t="n">
         <v>333.55</v>
       </c>
       <c r="F36" s="0" t="n">
-        <v>671.83</v>
+        <v>335.91</v>
       </c>
       <c r="G36" s="0" t="inlineStr">
         <is>
@@ -2218,10 +2222,10 @@
         </is>
       </c>
       <c r="H36" s="0" t="n">
-        <v>0.67</v>
+        <v>0.33</v>
       </c>
       <c r="I36" s="0" t="n">
-        <v>4.06</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="37">
@@ -2239,13 +2243,13 @@
         </is>
       </c>
       <c r="D37" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E37" s="0" t="n">
         <v>333.55</v>
       </c>
       <c r="F37" s="0" t="n">
-        <v>335.91</v>
+        <v>671.83</v>
       </c>
       <c r="G37" s="0" t="inlineStr">
         <is>
@@ -2253,10 +2257,10 @@
         </is>
       </c>
       <c r="H37" s="0" t="n">
-        <v>0.33</v>
+        <v>0.67</v>
       </c>
       <c r="I37" s="0" t="n">
-        <v>2.03</v>
+        <v>4.06</v>
       </c>
     </row>
     <row r="38">
@@ -2309,13 +2313,13 @@
         </is>
       </c>
       <c r="D39" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E39" s="0" t="n">
         <v>333.55</v>
       </c>
       <c r="F39" s="0" t="n">
-        <v>671.83</v>
+        <v>335.91</v>
       </c>
       <c r="G39" s="0" t="inlineStr">
         <is>
@@ -2323,10 +2327,10 @@
         </is>
       </c>
       <c r="H39" s="0" t="n">
-        <v>0.67</v>
+        <v>0.33</v>
       </c>
       <c r="I39" s="0" t="n">
-        <v>4.06</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="40">
@@ -2344,13 +2348,13 @@
         </is>
       </c>
       <c r="D40" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E40" s="0" t="n">
         <v>333.55</v>
       </c>
       <c r="F40" s="0" t="n">
-        <v>335.91</v>
+        <v>671.83</v>
       </c>
       <c r="G40" s="0" t="inlineStr">
         <is>
@@ -2358,10 +2362,10 @@
         </is>
       </c>
       <c r="H40" s="0" t="n">
-        <v>0.33</v>
+        <v>0.67</v>
       </c>
       <c r="I40" s="0" t="n">
-        <v>2.03</v>
+        <v>4.06</v>
       </c>
     </row>
     <row r="41">
@@ -2379,13 +2383,13 @@
         </is>
       </c>
       <c r="D41" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E41" s="0" t="n">
         <v>333.55</v>
       </c>
       <c r="F41" s="0" t="n">
-        <v>671.83</v>
+        <v>335.91</v>
       </c>
       <c r="G41" s="0" t="inlineStr">
         <is>
@@ -2393,10 +2397,10 @@
         </is>
       </c>
       <c r="H41" s="0" t="n">
-        <v>0.67</v>
+        <v>0.33</v>
       </c>
       <c r="I41" s="0" t="n">
-        <v>4.06</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="42">
@@ -2519,13 +2523,13 @@
         </is>
       </c>
       <c r="D45" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E45" s="0" t="n">
         <v>333.55</v>
       </c>
       <c r="F45" s="0" t="n">
-        <v>335.91</v>
+        <v>671.83</v>
       </c>
       <c r="G45" s="0" t="inlineStr">
         <is>
@@ -2533,10 +2537,10 @@
         </is>
       </c>
       <c r="H45" s="0" t="n">
-        <v>0.33</v>
+        <v>0.67</v>
       </c>
       <c r="I45" s="0" t="n">
-        <v>2.03</v>
+        <v>4.06</v>
       </c>
     </row>
     <row r="46">
@@ -2576,11 +2580,11 @@
     </row>
     <row r="47">
       <c r="A47" s="89" t="n">
-        <v>45943</v>
+        <v>45947</v>
       </c>
       <c r="B47" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C47" s="0" t="inlineStr">
@@ -2589,13 +2593,13 @@
         </is>
       </c>
       <c r="D47" s="0" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E47" s="0" t="n">
-        <v>339.1</v>
+        <v>333.55</v>
       </c>
       <c r="F47" s="0" t="n">
-        <v>3414.95</v>
+        <v>335.91</v>
       </c>
       <c r="G47" s="0" t="inlineStr">
         <is>
@@ -2603,19 +2607,19 @@
         </is>
       </c>
       <c r="H47" s="0" t="n">
-        <v>3.2</v>
+        <v>0.33</v>
       </c>
       <c r="I47" s="0" t="n">
-        <v>20.75</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="89" t="n">
-        <v>45940</v>
+        <v>45943</v>
       </c>
       <c r="B48" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C48" s="0" t="inlineStr">
@@ -2624,13 +2628,13 @@
         </is>
       </c>
       <c r="D48" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E48" s="0" t="n">
-        <v>345.05</v>
+        <v>339.1</v>
       </c>
       <c r="F48" s="0" t="n">
-        <v>6950.08</v>
+        <v>3414.95</v>
       </c>
       <c r="G48" s="0" t="inlineStr">
         <is>
@@ -2638,107 +2642,50 @@
         </is>
       </c>
       <c r="H48" s="0" t="n">
-        <v>7</v>
+        <v>3.2</v>
       </c>
       <c r="I48" s="0" t="n">
-        <v>42.08</v>
+        <v>20.75</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="38" t="n">
-        <v>45950</v>
-      </c>
-      <c r="B49" s="39" t="inlineStr">
+      <c r="A49" s="89" t="n">
+        <v>45940</v>
+      </c>
+      <c r="B49" s="0" t="inlineStr">
         <is>
           <t>NSE</t>
         </is>
       </c>
-      <c r="C49" s="39" t="inlineStr">
+      <c r="C49" s="0" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D49" s="40" t="n">
-        <v>40</v>
-      </c>
-      <c r="E49" s="41" t="n">
-        <v>333.04</v>
-      </c>
-      <c r="F49" s="42">
-        <f>D5*E5</f>
-        <v/>
-      </c>
-      <c r="G49" s="39" t="inlineStr">
+      <c r="D49" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="E49" s="0" t="n">
+        <v>345.05</v>
+      </c>
+      <c r="F49" s="0" t="n">
+        <v>6950.08</v>
+      </c>
+      <c r="G49" s="0" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H49" s="40" t="n"/>
-      <c r="I49" s="40" t="n"/>
-      <c r="J49" s="43">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K49" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="L49" s="45">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="M49" s="45">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
-        <v/>
-      </c>
-      <c r="N49" s="46">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
-        <v/>
-      </c>
-      <c r="O49" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="P49" s="45">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="Q49" s="45">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
-        <v/>
-      </c>
-      <c r="R49" s="45">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="S49" s="47">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="T49" s="48">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="U49" s="48">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
-        <v/>
-      </c>
-      <c r="V49" s="48">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="W49" s="49" t="n"/>
-      <c r="X49" s="49" t="n"/>
-      <c r="Y49" s="50" t="n"/>
-      <c r="Z49" s="49" t="n"/>
-      <c r="AA49" s="49" t="n"/>
-      <c r="AB49" s="51" t="n"/>
-      <c r="AC49" s="52" t="n"/>
-      <c r="AD49" s="53" t="n"/>
+      <c r="H49" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="I49" s="0" t="n">
+        <v>42.08</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="38" t="n">
-        <v>45947</v>
+        <v>45950</v>
       </c>
       <c r="B50" s="39" t="inlineStr">
         <is>
@@ -2751,13 +2698,13 @@
         </is>
       </c>
       <c r="D50" s="40" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E50" s="41" t="n">
-        <v>335.92</v>
+        <v>333.04</v>
       </c>
       <c r="F50" s="42">
-        <f>D6*E6</f>
+        <f>D5*E5</f>
         <v/>
       </c>
       <c r="G50" s="39" t="inlineStr">
@@ -2772,51 +2719,51 @@
         <v/>
       </c>
       <c r="K50" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="L50" s="45">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="M50" s="45">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
         <v/>
       </c>
       <c r="N50" s="46">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
         <v/>
       </c>
       <c r="O50" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="P50" s="45">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="Q50" s="45">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
         <v/>
       </c>
       <c r="R50" s="45">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="S50" s="47">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="T50" s="48">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="U50" s="48">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
         <v/>
       </c>
       <c r="V50" s="48">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="W50" s="49" t="n"/>
@@ -2830,7 +2777,7 @@
     </row>
     <row r="51">
       <c r="A51" s="38" t="n">
-        <v>45943</v>
+        <v>45947</v>
       </c>
       <c r="B51" s="39" t="inlineStr">
         <is>
@@ -2843,13 +2790,13 @@
         </is>
       </c>
       <c r="D51" s="40" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E51" s="41" t="n">
-        <v>341.5</v>
+        <v>335.92</v>
       </c>
       <c r="F51" s="42">
-        <f>D7*E7</f>
+        <f>D6*E6</f>
         <v/>
       </c>
       <c r="G51" s="39" t="inlineStr">
@@ -2864,51 +2811,51 @@
         <v/>
       </c>
       <c r="K51" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="L51" s="45">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="M51" s="45">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
         <v/>
       </c>
       <c r="N51" s="46">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
         <v/>
       </c>
       <c r="O51" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="P51" s="45">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="Q51" s="45">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
         <v/>
       </c>
       <c r="R51" s="45">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
         <v/>
       </c>
       <c r="S51" s="47">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="T51" s="48">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="U51" s="48">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
         <v/>
       </c>
       <c r="V51" s="48">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
         <v/>
       </c>
       <c r="W51" s="49" t="n"/>
@@ -2922,7 +2869,7 @@
     </row>
     <row r="52">
       <c r="A52" s="38" t="n">
-        <v>45940</v>
+        <v>45943</v>
       </c>
       <c r="B52" s="39" t="inlineStr">
         <is>
@@ -2935,13 +2882,13 @@
         </is>
       </c>
       <c r="D52" s="40" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E52" s="41" t="n">
-        <v>347.5</v>
+        <v>341.5</v>
       </c>
       <c r="F52" s="42">
-        <f>D8*E8</f>
+        <f>D7*E7</f>
         <v/>
       </c>
       <c r="G52" s="39" t="inlineStr">
@@ -2956,51 +2903,51 @@
         <v/>
       </c>
       <c r="K52" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="L52" s="45">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="M52" s="45">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
         <v/>
       </c>
       <c r="N52" s="46">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
         <v/>
       </c>
       <c r="O52" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="P52" s="45">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="Q52" s="45">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
         <v/>
       </c>
       <c r="R52" s="45">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="S52" s="47">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="T52" s="48">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="U52" s="48">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
         <v/>
       </c>
       <c r="V52" s="48">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="W52" s="49" t="n"/>
@@ -3013,20 +2960,96 @@
       <c r="AD52" s="53" t="n"/>
     </row>
     <row r="53">
-      <c r="E53" s="54" t="n"/>
-      <c r="F53" s="54" t="n"/>
-      <c r="G53" s="55" t="n"/>
-      <c r="J53" s="54" t="n"/>
-      <c r="K53" s="54" t="n"/>
-      <c r="L53" s="54" t="n"/>
-      <c r="M53" s="57" t="n"/>
-      <c r="W53" s="54" t="n"/>
-      <c r="X53" s="54" t="n"/>
-      <c r="Y53" s="54" t="n"/>
-      <c r="Z53" s="54" t="n"/>
-      <c r="AA53" s="54" t="n"/>
-      <c r="AB53" s="54" t="n"/>
-      <c r="AC53" s="54" t="n"/>
+      <c r="A53" s="38" t="n">
+        <v>45940</v>
+      </c>
+      <c r="B53" s="39" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C53" s="39" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D53" s="40" t="n">
+        <v>20</v>
+      </c>
+      <c r="E53" s="41" t="n">
+        <v>347.5</v>
+      </c>
+      <c r="F53" s="42">
+        <f>D8*E8</f>
+        <v/>
+      </c>
+      <c r="G53" s="39" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H53" s="40" t="n"/>
+      <c r="I53" s="40" t="n"/>
+      <c r="J53" s="43">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K53" s="44">
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/sum(F8:I8), "")</f>
+        <v/>
+      </c>
+      <c r="L53" s="45">
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <v/>
+      </c>
+      <c r="M53" s="45">
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
+        <v/>
+      </c>
+      <c r="N53" s="46">
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
+        <v/>
+      </c>
+      <c r="O53" s="44">
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/sum(F8:I8), "")</f>
+        <v/>
+      </c>
+      <c r="P53" s="45">
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <v/>
+      </c>
+      <c r="Q53" s="45">
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
+        <v/>
+      </c>
+      <c r="R53" s="45">
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
+        <v/>
+      </c>
+      <c r="S53" s="47">
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/sum(F8:I8), "")</f>
+        <v/>
+      </c>
+      <c r="T53" s="48">
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <v/>
+      </c>
+      <c r="U53" s="48">
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
+        <v/>
+      </c>
+      <c r="V53" s="48">
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
+        <v/>
+      </c>
+      <c r="W53" s="49" t="n"/>
+      <c r="X53" s="49" t="n"/>
+      <c r="Y53" s="50" t="n"/>
+      <c r="Z53" s="49" t="n"/>
+      <c r="AA53" s="49" t="n"/>
+      <c r="AB53" s="51" t="n"/>
+      <c r="AC53" s="52" t="n"/>
+      <c r="AD53" s="53" t="n"/>
     </row>
     <row r="54">
       <c r="E54" s="54" t="n"/>
@@ -17995,6 +18018,7 @@
       <c r="J989" s="54" t="n"/>
       <c r="K989" s="54" t="n"/>
       <c r="L989" s="54" t="n"/>
+      <c r="M989" s="57" t="n"/>
       <c r="W989" s="54" t="n"/>
       <c r="X989" s="54" t="n"/>
       <c r="Y989" s="54" t="n"/>
@@ -18242,6 +18266,21 @@
       <c r="AA1005" s="54" t="n"/>
       <c r="AB1005" s="54" t="n"/>
       <c r="AC1005" s="54" t="n"/>
+    </row>
+    <row r="1006">
+      <c r="E1006" s="54" t="n"/>
+      <c r="F1006" s="54" t="n"/>
+      <c r="G1006" s="55" t="n"/>
+      <c r="J1006" s="54" t="n"/>
+      <c r="K1006" s="54" t="n"/>
+      <c r="L1006" s="54" t="n"/>
+      <c r="W1006" s="54" t="n"/>
+      <c r="X1006" s="54" t="n"/>
+      <c r="Y1006" s="54" t="n"/>
+      <c r="Z1006" s="54" t="n"/>
+      <c r="AA1006" s="54" t="n"/>
+      <c r="AB1006" s="54" t="n"/>
+      <c r="AC1006" s="54" t="n"/>
     </row>
   </sheetData>
   <autoFilter ref="$A$4:$AO$38"/>

--- a/dumps/Stocks/Rail Vikas Nigam.xlsx
+++ b/dumps/Stocks/Rail Vikas Nigam.xlsx
@@ -752,7 +752,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP1006"/>
+  <dimension ref="A1:AP1007"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
@@ -1102,7 +1102,7 @@
     </row>
     <row r="5">
       <c r="A5" s="90" t="n">
-        <v>46063</v>
+        <v>46059</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -1118,21 +1118,18 @@
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>317.85</v>
+        <v>312.2</v>
       </c>
       <c r="F5" t="n">
-        <v>3201.04</v>
+        <v>3137.6</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>CN#252611730667</t>
+          <t>CN#252611604850</t>
         </is>
       </c>
-      <c r="H5" t="n">
-        <v>3.18</v>
-      </c>
       <c r="I5" t="n">
-        <v>19.36</v>
+        <v>15.6</v>
       </c>
       <c r="J5">
         <f>Index!$C$2</f>
@@ -1141,7 +1138,7 @@
     </row>
     <row r="6">
       <c r="A6" s="90" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
@@ -1157,21 +1154,21 @@
         <v>10</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>315.4</v>
+        <v>317.85</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>3176.37</v>
+        <v>3201.04</v>
       </c>
       <c r="G6" s="0" t="inlineStr">
         <is>
-          <t>CN#252611665409</t>
+          <t>CN#252611730667</t>
         </is>
       </c>
       <c r="H6" s="0" t="n">
-        <v>3.15</v>
+        <v>3.18</v>
       </c>
       <c r="I6" s="0" t="n">
-        <v>19.22</v>
+        <v>19.36</v>
       </c>
       <c r="J6" s="0">
         <f>Index!$C$2</f>
@@ -1179,8 +1176,8 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="89" t="n">
-        <v>46057</v>
+      <c r="A7" s="90" t="n">
+        <v>46062</v>
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
@@ -1196,26 +1193,30 @@
         <v>10</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>321.15</v>
+        <v>315.4</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>3234.33</v>
+        <v>3176.37</v>
       </c>
       <c r="G7" s="0" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>CN#252611665409</t>
         </is>
       </c>
       <c r="H7" s="0" t="n">
-        <v>3.22</v>
+        <v>3.15</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>19.61</v>
+        <v>19.22</v>
+      </c>
+      <c r="J7" s="0">
+        <f>Index!$C$2</f>
+        <v/>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="89" t="n">
-        <v>46049</v>
+        <v>46057</v>
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
@@ -1231,10 +1232,10 @@
         <v>10</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>326.5</v>
+        <v>321.15</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>3288.13</v>
+        <v>3234.33</v>
       </c>
       <c r="G8" s="0" t="inlineStr">
         <is>
@@ -1242,15 +1243,15 @@
         </is>
       </c>
       <c r="H8" s="0" t="n">
-        <v>3.27</v>
+        <v>3.22</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>19.86</v>
+        <v>19.61</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="89" t="n">
-        <v>46034</v>
+        <v>46049</v>
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
@@ -1266,10 +1267,10 @@
         <v>10</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>327.5</v>
+        <v>326.5</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>3298.26</v>
+        <v>3288.13</v>
       </c>
       <c r="G9" s="0" t="inlineStr">
         <is>
@@ -1277,15 +1278,15 @@
         </is>
       </c>
       <c r="H9" s="0" t="n">
-        <v>3.29</v>
+        <v>3.27</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>19.97</v>
+        <v>19.86</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="89" t="n">
-        <v>46009</v>
+        <v>46034</v>
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
@@ -1301,10 +1302,10 @@
         <v>10</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>303.35</v>
+        <v>327.5</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>3055.04</v>
+        <v>3298.26</v>
       </c>
       <c r="G10" s="0" t="inlineStr">
         <is>
@@ -1312,19 +1313,19 @@
         </is>
       </c>
       <c r="H10" s="0" t="n">
-        <v>3.04</v>
+        <v>3.29</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>18.5</v>
+        <v>19.97</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="89" t="n">
-        <v>46008</v>
+        <v>46009</v>
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C11" s="0" t="inlineStr">
@@ -1336,10 +1337,10 @@
         <v>10</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>307.8</v>
+        <v>303.35</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>3099.86</v>
+        <v>3055.04</v>
       </c>
       <c r="G11" s="0" t="inlineStr">
         <is>
@@ -1347,15 +1348,15 @@
         </is>
       </c>
       <c r="H11" s="0" t="n">
-        <v>3.1</v>
+        <v>3.04</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>18.76</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="89" t="n">
-        <v>46007</v>
+        <v>46008</v>
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
@@ -1371,10 +1372,10 @@
         <v>10</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>310.25</v>
+        <v>307.8</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>3124.51</v>
+        <v>3099.86</v>
       </c>
       <c r="G12" s="0" t="inlineStr">
         <is>
@@ -1382,19 +1383,19 @@
         </is>
       </c>
       <c r="H12" s="0" t="n">
-        <v>3.09</v>
+        <v>3.1</v>
       </c>
       <c r="I12" s="0" t="n">
-        <v>18.92</v>
+        <v>18.76</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="89" t="n">
-        <v>46000</v>
+        <v>46007</v>
       </c>
       <c r="B13" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C13" s="0" t="inlineStr">
@@ -1406,10 +1407,10 @@
         <v>10</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>312.35</v>
+        <v>310.25</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>3145.61</v>
+        <v>3124.51</v>
       </c>
       <c r="G13" s="0" t="inlineStr">
         <is>
@@ -1417,15 +1418,15 @@
         </is>
       </c>
       <c r="H13" s="0" t="n">
-        <v>3.11</v>
+        <v>3.09</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>19</v>
+        <v>18.92</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="89" t="n">
-        <v>45993</v>
+        <v>46000</v>
       </c>
       <c r="B14" s="0" t="inlineStr">
         <is>
@@ -1441,10 +1442,10 @@
         <v>10</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>319.35</v>
+        <v>312.35</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>3216.18</v>
+        <v>3145.61</v>
       </c>
       <c r="G14" s="0" t="inlineStr">
         <is>
@@ -1452,15 +1453,15 @@
         </is>
       </c>
       <c r="H14" s="0" t="n">
-        <v>3.21</v>
+        <v>3.11</v>
       </c>
       <c r="I14" s="0" t="n">
-        <v>19.47</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="89" t="n">
-        <v>45982</v>
+        <v>45993</v>
       </c>
       <c r="B15" s="0" t="inlineStr">
         <is>
@@ -1473,13 +1474,13 @@
         </is>
       </c>
       <c r="D15" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>315.7</v>
+        <v>319.35</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>6358.77</v>
+        <v>3216.18</v>
       </c>
       <c r="G15" s="0" t="inlineStr">
         <is>
@@ -1487,15 +1488,15 @@
         </is>
       </c>
       <c r="H15" s="0" t="n">
-        <v>6.31</v>
+        <v>3.21</v>
       </c>
       <c r="I15" s="0" t="n">
-        <v>38.46</v>
+        <v>19.47</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="89" t="n">
-        <v>45978</v>
+        <v>45982</v>
       </c>
       <c r="B16" s="0" t="inlineStr">
         <is>
@@ -1511,10 +1512,10 @@
         <v>20</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>331.55</v>
+        <v>315.7</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>6678.07</v>
+        <v>6358.77</v>
       </c>
       <c r="G16" s="0" t="inlineStr">
         <is>
@@ -1522,15 +1523,15 @@
         </is>
       </c>
       <c r="H16" s="0" t="n">
-        <v>6.66</v>
+        <v>6.31</v>
       </c>
       <c r="I16" s="0" t="n">
-        <v>40.41</v>
+        <v>38.46</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="89" t="n">
-        <v>45975</v>
+        <v>45978</v>
       </c>
       <c r="B17" s="0" t="inlineStr">
         <is>
@@ -1546,10 +1547,10 @@
         <v>20</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>316.35</v>
+        <v>331.55</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>6371.79</v>
+        <v>6678.07</v>
       </c>
       <c r="G17" s="0" t="inlineStr">
         <is>
@@ -1557,15 +1558,15 @@
         </is>
       </c>
       <c r="H17" s="0" t="n">
-        <v>6.33</v>
+        <v>6.66</v>
       </c>
       <c r="I17" s="0" t="n">
-        <v>38.46</v>
+        <v>40.41</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="89" t="n">
-        <v>45974</v>
+        <v>45975</v>
       </c>
       <c r="B18" s="0" t="inlineStr">
         <is>
@@ -1578,13 +1579,13 @@
         </is>
       </c>
       <c r="D18" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>317.75</v>
+        <v>316.35</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>3200.04</v>
+        <v>6371.79</v>
       </c>
       <c r="G18" s="0" t="inlineStr">
         <is>
@@ -1592,15 +1593,15 @@
         </is>
       </c>
       <c r="H18" s="0" t="n">
-        <v>3.17</v>
+        <v>6.33</v>
       </c>
       <c r="I18" s="0" t="n">
-        <v>19.37</v>
+        <v>38.46</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="89" t="n">
-        <v>45972</v>
+        <v>45974</v>
       </c>
       <c r="B19" s="0" t="inlineStr">
         <is>
@@ -1616,10 +1617,10 @@
         <v>10</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>317.35</v>
+        <v>317.75</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>3196.03</v>
+        <v>3200.04</v>
       </c>
       <c r="G19" s="0" t="inlineStr">
         <is>
@@ -1627,15 +1628,15 @@
         </is>
       </c>
       <c r="H19" s="0" t="n">
-        <v>3.15</v>
+        <v>3.17</v>
       </c>
       <c r="I19" s="0" t="n">
-        <v>19.38</v>
+        <v>19.37</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="89" t="n">
-        <v>45971</v>
+        <v>45972</v>
       </c>
       <c r="B20" s="0" t="inlineStr">
         <is>
@@ -1648,13 +1649,13 @@
         </is>
       </c>
       <c r="D20" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>318.15</v>
+        <v>317.35</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>6408.02</v>
+        <v>3196.03</v>
       </c>
       <c r="G20" s="0" t="inlineStr">
         <is>
@@ -1662,15 +1663,15 @@
         </is>
       </c>
       <c r="H20" s="0" t="n">
-        <v>6.32</v>
+        <v>3.15</v>
       </c>
       <c r="I20" s="0" t="n">
-        <v>38.7</v>
+        <v>19.38</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="89" t="n">
-        <v>45968</v>
+        <v>45971</v>
       </c>
       <c r="B21" s="0" t="inlineStr">
         <is>
@@ -1686,10 +1687,10 @@
         <v>20</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>315.5</v>
+        <v>318.15</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>6354.78</v>
+        <v>6408.02</v>
       </c>
       <c r="G21" s="0" t="inlineStr">
         <is>
@@ -1697,15 +1698,15 @@
         </is>
       </c>
       <c r="H21" s="0" t="n">
-        <v>6.29</v>
+        <v>6.32</v>
       </c>
       <c r="I21" s="0" t="n">
-        <v>38.49</v>
+        <v>38.7</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="89" t="n">
-        <v>45967</v>
+        <v>45968</v>
       </c>
       <c r="B22" s="0" t="inlineStr">
         <is>
@@ -1721,10 +1722,10 @@
         <v>20</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>320.3</v>
+        <v>315.5</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>6451.44</v>
+        <v>6354.78</v>
       </c>
       <c r="G22" s="0" t="inlineStr">
         <is>
@@ -1732,15 +1733,15 @@
         </is>
       </c>
       <c r="H22" s="0" t="n">
-        <v>6.45</v>
+        <v>6.29</v>
       </c>
       <c r="I22" s="0" t="n">
-        <v>38.99</v>
+        <v>38.49</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="89" t="n">
-        <v>45961</v>
+        <v>45967</v>
       </c>
       <c r="B23" s="0" t="inlineStr">
         <is>
@@ -1756,10 +1757,10 @@
         <v>20</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>329.9</v>
+        <v>320.3</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>6644.77</v>
+        <v>6451.44</v>
       </c>
       <c r="G23" s="0" t="inlineStr">
         <is>
@@ -1767,15 +1768,15 @@
         </is>
       </c>
       <c r="H23" s="0" t="n">
-        <v>6.58</v>
+        <v>6.45</v>
       </c>
       <c r="I23" s="0" t="n">
-        <v>40.19</v>
+        <v>38.99</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="89" t="n">
-        <v>45959</v>
+        <v>45961</v>
       </c>
       <c r="B24" s="0" t="inlineStr">
         <is>
@@ -1788,13 +1789,13 @@
         </is>
       </c>
       <c r="D24" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>328.3</v>
+        <v>329.9</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>9918.719999999999</v>
+        <v>6644.77</v>
       </c>
       <c r="G24" s="0" t="inlineStr">
         <is>
@@ -1802,15 +1803,15 @@
         </is>
       </c>
       <c r="H24" s="0" t="n">
-        <v>9.83</v>
+        <v>6.58</v>
       </c>
       <c r="I24" s="0" t="n">
-        <v>59.89</v>
+        <v>40.19</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="89" t="n">
-        <v>45957</v>
+        <v>45959</v>
       </c>
       <c r="B25" s="0" t="inlineStr">
         <is>
@@ -1823,13 +1824,13 @@
         </is>
       </c>
       <c r="D25" s="0" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>329.8</v>
+        <v>328.3</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>3321.4</v>
+        <v>9918.719999999999</v>
       </c>
       <c r="G25" s="0" t="inlineStr">
         <is>
@@ -1837,15 +1838,15 @@
         </is>
       </c>
       <c r="H25" s="0" t="n">
-        <v>3.31</v>
+        <v>9.83</v>
       </c>
       <c r="I25" s="0" t="n">
-        <v>20.09</v>
+        <v>59.89</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="89" t="n">
-        <v>45954</v>
+        <v>45957</v>
       </c>
       <c r="B26" s="0" t="inlineStr">
         <is>
@@ -1858,13 +1859,13 @@
         </is>
       </c>
       <c r="D26" s="0" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>331.45</v>
+        <v>329.8</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>10014.1</v>
+        <v>3321.4</v>
       </c>
       <c r="G26" s="0" t="inlineStr">
         <is>
@@ -1872,19 +1873,19 @@
         </is>
       </c>
       <c r="H26" s="0" t="n">
-        <v>9.960000000000001</v>
+        <v>3.31</v>
       </c>
       <c r="I26" s="0" t="n">
-        <v>60.64</v>
+        <v>20.09</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="89" t="n">
-        <v>45953</v>
+        <v>45954</v>
       </c>
       <c r="B27" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C27" s="0" t="inlineStr">
@@ -1893,13 +1894,13 @@
         </is>
       </c>
       <c r="D27" s="0" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>333.95</v>
+        <v>331.45</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>6726.39</v>
+        <v>10014.1</v>
       </c>
       <c r="G27" s="0" t="inlineStr">
         <is>
@@ -1907,19 +1908,19 @@
         </is>
       </c>
       <c r="H27" s="0" t="n">
-        <v>6.66</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="I27" s="0" t="n">
-        <v>40.73</v>
+        <v>60.64</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="89" t="n">
-        <v>45950</v>
+        <v>45953</v>
       </c>
       <c r="B28" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C28" s="0" t="inlineStr">
@@ -1928,13 +1929,13 @@
         </is>
       </c>
       <c r="D28" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>330.7</v>
+        <v>333.95</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>13321.59</v>
+        <v>6726.39</v>
       </c>
       <c r="G28" s="0" t="inlineStr">
         <is>
@@ -1942,15 +1943,15 @@
         </is>
       </c>
       <c r="H28" s="0" t="n">
-        <v>13.22</v>
+        <v>6.66</v>
       </c>
       <c r="I28" s="0" t="n">
-        <v>80.37</v>
+        <v>40.73</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="89" t="n">
-        <v>45947</v>
+        <v>45950</v>
       </c>
       <c r="B29" s="0" t="inlineStr">
         <is>
@@ -1963,13 +1964,13 @@
         </is>
       </c>
       <c r="D29" s="0" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>333.55</v>
+        <v>330.7</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>335.91</v>
+        <v>13321.59</v>
       </c>
       <c r="G29" s="0" t="inlineStr">
         <is>
@@ -1977,10 +1978,10 @@
         </is>
       </c>
       <c r="H29" s="0" t="n">
-        <v>0.33</v>
+        <v>13.22</v>
       </c>
       <c r="I29" s="0" t="n">
-        <v>2.03</v>
+        <v>80.37</v>
       </c>
     </row>
     <row r="30">
@@ -2033,13 +2034,13 @@
         </is>
       </c>
       <c r="D31" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E31" s="0" t="n">
         <v>333.55</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>671.83</v>
+        <v>335.91</v>
       </c>
       <c r="G31" s="0" t="inlineStr">
         <is>
@@ -2047,10 +2048,10 @@
         </is>
       </c>
       <c r="H31" s="0" t="n">
-        <v>0.67</v>
+        <v>0.33</v>
       </c>
       <c r="I31" s="0" t="n">
-        <v>4.06</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="32">
@@ -2208,13 +2209,13 @@
         </is>
       </c>
       <c r="D36" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E36" s="0" t="n">
         <v>333.55</v>
       </c>
       <c r="F36" s="0" t="n">
-        <v>335.91</v>
+        <v>671.83</v>
       </c>
       <c r="G36" s="0" t="inlineStr">
         <is>
@@ -2222,10 +2223,10 @@
         </is>
       </c>
       <c r="H36" s="0" t="n">
-        <v>0.33</v>
+        <v>0.67</v>
       </c>
       <c r="I36" s="0" t="n">
-        <v>2.03</v>
+        <v>4.06</v>
       </c>
     </row>
     <row r="37">
@@ -2243,13 +2244,13 @@
         </is>
       </c>
       <c r="D37" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E37" s="0" t="n">
         <v>333.55</v>
       </c>
       <c r="F37" s="0" t="n">
-        <v>671.83</v>
+        <v>335.91</v>
       </c>
       <c r="G37" s="0" t="inlineStr">
         <is>
@@ -2257,10 +2258,10 @@
         </is>
       </c>
       <c r="H37" s="0" t="n">
-        <v>0.67</v>
+        <v>0.33</v>
       </c>
       <c r="I37" s="0" t="n">
-        <v>4.06</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="38">
@@ -2278,13 +2279,13 @@
         </is>
       </c>
       <c r="D38" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E38" s="0" t="n">
         <v>333.55</v>
       </c>
       <c r="F38" s="0" t="n">
-        <v>335.91</v>
+        <v>671.83</v>
       </c>
       <c r="G38" s="0" t="inlineStr">
         <is>
@@ -2292,10 +2293,10 @@
         </is>
       </c>
       <c r="H38" s="0" t="n">
-        <v>0.33</v>
+        <v>0.67</v>
       </c>
       <c r="I38" s="0" t="n">
-        <v>2.03</v>
+        <v>4.06</v>
       </c>
     </row>
     <row r="39">
@@ -2348,13 +2349,13 @@
         </is>
       </c>
       <c r="D40" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E40" s="0" t="n">
         <v>333.55</v>
       </c>
       <c r="F40" s="0" t="n">
-        <v>671.83</v>
+        <v>335.91</v>
       </c>
       <c r="G40" s="0" t="inlineStr">
         <is>
@@ -2362,10 +2363,10 @@
         </is>
       </c>
       <c r="H40" s="0" t="n">
-        <v>0.67</v>
+        <v>0.33</v>
       </c>
       <c r="I40" s="0" t="n">
-        <v>4.06</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="41">
@@ -2383,13 +2384,13 @@
         </is>
       </c>
       <c r="D41" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E41" s="0" t="n">
         <v>333.55</v>
       </c>
       <c r="F41" s="0" t="n">
-        <v>335.91</v>
+        <v>671.83</v>
       </c>
       <c r="G41" s="0" t="inlineStr">
         <is>
@@ -2397,10 +2398,10 @@
         </is>
       </c>
       <c r="H41" s="0" t="n">
-        <v>0.33</v>
+        <v>0.67</v>
       </c>
       <c r="I41" s="0" t="n">
-        <v>2.03</v>
+        <v>4.06</v>
       </c>
     </row>
     <row r="42">
@@ -2418,13 +2419,13 @@
         </is>
       </c>
       <c r="D42" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E42" s="0" t="n">
         <v>333.55</v>
       </c>
       <c r="F42" s="0" t="n">
-        <v>671.83</v>
+        <v>335.91</v>
       </c>
       <c r="G42" s="0" t="inlineStr">
         <is>
@@ -2432,10 +2433,10 @@
         </is>
       </c>
       <c r="H42" s="0" t="n">
-        <v>0.67</v>
+        <v>0.33</v>
       </c>
       <c r="I42" s="0" t="n">
-        <v>4.06</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="43">
@@ -2558,13 +2559,13 @@
         </is>
       </c>
       <c r="D46" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E46" s="0" t="n">
         <v>333.55</v>
       </c>
       <c r="F46" s="0" t="n">
-        <v>335.91</v>
+        <v>671.83</v>
       </c>
       <c r="G46" s="0" t="inlineStr">
         <is>
@@ -2572,10 +2573,10 @@
         </is>
       </c>
       <c r="H46" s="0" t="n">
-        <v>0.33</v>
+        <v>0.67</v>
       </c>
       <c r="I46" s="0" t="n">
-        <v>2.03</v>
+        <v>4.06</v>
       </c>
     </row>
     <row r="47">
@@ -2615,11 +2616,11 @@
     </row>
     <row r="48">
       <c r="A48" s="89" t="n">
-        <v>45943</v>
+        <v>45947</v>
       </c>
       <c r="B48" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C48" s="0" t="inlineStr">
@@ -2628,13 +2629,13 @@
         </is>
       </c>
       <c r="D48" s="0" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E48" s="0" t="n">
-        <v>339.1</v>
+        <v>333.55</v>
       </c>
       <c r="F48" s="0" t="n">
-        <v>3414.95</v>
+        <v>335.91</v>
       </c>
       <c r="G48" s="0" t="inlineStr">
         <is>
@@ -2642,19 +2643,19 @@
         </is>
       </c>
       <c r="H48" s="0" t="n">
-        <v>3.2</v>
+        <v>0.33</v>
       </c>
       <c r="I48" s="0" t="n">
-        <v>20.75</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="89" t="n">
-        <v>45940</v>
+        <v>45943</v>
       </c>
       <c r="B49" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C49" s="0" t="inlineStr">
@@ -2663,13 +2664,13 @@
         </is>
       </c>
       <c r="D49" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E49" s="0" t="n">
-        <v>345.05</v>
+        <v>339.1</v>
       </c>
       <c r="F49" s="0" t="n">
-        <v>6950.08</v>
+        <v>3414.95</v>
       </c>
       <c r="G49" s="0" t="inlineStr">
         <is>
@@ -2677,107 +2678,50 @@
         </is>
       </c>
       <c r="H49" s="0" t="n">
-        <v>7</v>
+        <v>3.2</v>
       </c>
       <c r="I49" s="0" t="n">
-        <v>42.08</v>
+        <v>20.75</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="38" t="n">
-        <v>45950</v>
-      </c>
-      <c r="B50" s="39" t="inlineStr">
+      <c r="A50" s="89" t="n">
+        <v>45940</v>
+      </c>
+      <c r="B50" s="0" t="inlineStr">
         <is>
           <t>NSE</t>
         </is>
       </c>
-      <c r="C50" s="39" t="inlineStr">
+      <c r="C50" s="0" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D50" s="40" t="n">
-        <v>40</v>
-      </c>
-      <c r="E50" s="41" t="n">
-        <v>333.04</v>
-      </c>
-      <c r="F50" s="42">
-        <f>D5*E5</f>
-        <v/>
-      </c>
-      <c r="G50" s="39" t="inlineStr">
+      <c r="D50" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="E50" s="0" t="n">
+        <v>345.05</v>
+      </c>
+      <c r="F50" s="0" t="n">
+        <v>6950.08</v>
+      </c>
+      <c r="G50" s="0" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H50" s="40" t="n"/>
-      <c r="I50" s="40" t="n"/>
-      <c r="J50" s="43">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K50" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="L50" s="45">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="M50" s="45">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
-        <v/>
-      </c>
-      <c r="N50" s="46">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
-        <v/>
-      </c>
-      <c r="O50" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="P50" s="45">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="Q50" s="45">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
-        <v/>
-      </c>
-      <c r="R50" s="45">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="S50" s="47">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="T50" s="48">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="U50" s="48">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
-        <v/>
-      </c>
-      <c r="V50" s="48">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="W50" s="49" t="n"/>
-      <c r="X50" s="49" t="n"/>
-      <c r="Y50" s="50" t="n"/>
-      <c r="Z50" s="49" t="n"/>
-      <c r="AA50" s="49" t="n"/>
-      <c r="AB50" s="51" t="n"/>
-      <c r="AC50" s="52" t="n"/>
-      <c r="AD50" s="53" t="n"/>
+      <c r="H50" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="I50" s="0" t="n">
+        <v>42.08</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="38" t="n">
-        <v>45947</v>
+        <v>45950</v>
       </c>
       <c r="B51" s="39" t="inlineStr">
         <is>
@@ -2790,13 +2734,13 @@
         </is>
       </c>
       <c r="D51" s="40" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E51" s="41" t="n">
-        <v>335.92</v>
+        <v>333.04</v>
       </c>
       <c r="F51" s="42">
-        <f>D6*E6</f>
+        <f>D5*E5</f>
         <v/>
       </c>
       <c r="G51" s="39" t="inlineStr">
@@ -2811,51 +2755,51 @@
         <v/>
       </c>
       <c r="K51" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="L51" s="45">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="M51" s="45">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
         <v/>
       </c>
       <c r="N51" s="46">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
         <v/>
       </c>
       <c r="O51" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="P51" s="45">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="Q51" s="45">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
         <v/>
       </c>
       <c r="R51" s="45">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="S51" s="47">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="T51" s="48">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="U51" s="48">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
         <v/>
       </c>
       <c r="V51" s="48">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="W51" s="49" t="n"/>
@@ -2869,7 +2813,7 @@
     </row>
     <row r="52">
       <c r="A52" s="38" t="n">
-        <v>45943</v>
+        <v>45947</v>
       </c>
       <c r="B52" s="39" t="inlineStr">
         <is>
@@ -2882,13 +2826,13 @@
         </is>
       </c>
       <c r="D52" s="40" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E52" s="41" t="n">
-        <v>341.5</v>
+        <v>335.92</v>
       </c>
       <c r="F52" s="42">
-        <f>D7*E7</f>
+        <f>D6*E6</f>
         <v/>
       </c>
       <c r="G52" s="39" t="inlineStr">
@@ -2903,51 +2847,51 @@
         <v/>
       </c>
       <c r="K52" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="L52" s="45">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="M52" s="45">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
         <v/>
       </c>
       <c r="N52" s="46">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
         <v/>
       </c>
       <c r="O52" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="P52" s="45">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="Q52" s="45">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
         <v/>
       </c>
       <c r="R52" s="45">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
         <v/>
       </c>
       <c r="S52" s="47">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="T52" s="48">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="U52" s="48">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
         <v/>
       </c>
       <c r="V52" s="48">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
         <v/>
       </c>
       <c r="W52" s="49" t="n"/>
@@ -2961,7 +2905,7 @@
     </row>
     <row r="53">
       <c r="A53" s="38" t="n">
-        <v>45940</v>
+        <v>45943</v>
       </c>
       <c r="B53" s="39" t="inlineStr">
         <is>
@@ -2974,13 +2918,13 @@
         </is>
       </c>
       <c r="D53" s="40" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E53" s="41" t="n">
-        <v>347.5</v>
+        <v>341.5</v>
       </c>
       <c r="F53" s="42">
-        <f>D8*E8</f>
+        <f>D7*E7</f>
         <v/>
       </c>
       <c r="G53" s="39" t="inlineStr">
@@ -2995,51 +2939,51 @@
         <v/>
       </c>
       <c r="K53" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="L53" s="45">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="M53" s="45">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
         <v/>
       </c>
       <c r="N53" s="46">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
         <v/>
       </c>
       <c r="O53" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="P53" s="45">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="Q53" s="45">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
         <v/>
       </c>
       <c r="R53" s="45">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="S53" s="47">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="T53" s="48">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="U53" s="48">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
         <v/>
       </c>
       <c r="V53" s="48">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="W53" s="49" t="n"/>
@@ -3052,20 +2996,96 @@
       <c r="AD53" s="53" t="n"/>
     </row>
     <row r="54">
-      <c r="E54" s="54" t="n"/>
-      <c r="F54" s="54" t="n"/>
-      <c r="G54" s="55" t="n"/>
-      <c r="J54" s="54" t="n"/>
-      <c r="K54" s="54" t="n"/>
-      <c r="L54" s="54" t="n"/>
-      <c r="M54" s="57" t="n"/>
-      <c r="W54" s="54" t="n"/>
-      <c r="X54" s="54" t="n"/>
-      <c r="Y54" s="54" t="n"/>
-      <c r="Z54" s="54" t="n"/>
-      <c r="AA54" s="54" t="n"/>
-      <c r="AB54" s="54" t="n"/>
-      <c r="AC54" s="54" t="n"/>
+      <c r="A54" s="38" t="n">
+        <v>45940</v>
+      </c>
+      <c r="B54" s="39" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C54" s="39" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D54" s="40" t="n">
+        <v>20</v>
+      </c>
+      <c r="E54" s="41" t="n">
+        <v>347.5</v>
+      </c>
+      <c r="F54" s="42">
+        <f>D8*E8</f>
+        <v/>
+      </c>
+      <c r="G54" s="39" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H54" s="40" t="n"/>
+      <c r="I54" s="40" t="n"/>
+      <c r="J54" s="43">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K54" s="44">
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/sum(F8:I8), "")</f>
+        <v/>
+      </c>
+      <c r="L54" s="45">
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <v/>
+      </c>
+      <c r="M54" s="45">
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
+        <v/>
+      </c>
+      <c r="N54" s="46">
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
+        <v/>
+      </c>
+      <c r="O54" s="44">
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/sum(F8:I8), "")</f>
+        <v/>
+      </c>
+      <c r="P54" s="45">
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <v/>
+      </c>
+      <c r="Q54" s="45">
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
+        <v/>
+      </c>
+      <c r="R54" s="45">
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
+        <v/>
+      </c>
+      <c r="S54" s="47">
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/sum(F8:I8), "")</f>
+        <v/>
+      </c>
+      <c r="T54" s="48">
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <v/>
+      </c>
+      <c r="U54" s="48">
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
+        <v/>
+      </c>
+      <c r="V54" s="48">
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
+        <v/>
+      </c>
+      <c r="W54" s="49" t="n"/>
+      <c r="X54" s="49" t="n"/>
+      <c r="Y54" s="50" t="n"/>
+      <c r="Z54" s="49" t="n"/>
+      <c r="AA54" s="49" t="n"/>
+      <c r="AB54" s="51" t="n"/>
+      <c r="AC54" s="52" t="n"/>
+      <c r="AD54" s="53" t="n"/>
     </row>
     <row r="55">
       <c r="E55" s="54" t="n"/>
@@ -18034,6 +18054,7 @@
       <c r="J990" s="54" t="n"/>
       <c r="K990" s="54" t="n"/>
       <c r="L990" s="54" t="n"/>
+      <c r="M990" s="57" t="n"/>
       <c r="W990" s="54" t="n"/>
       <c r="X990" s="54" t="n"/>
       <c r="Y990" s="54" t="n"/>
@@ -18281,6 +18302,21 @@
       <c r="AA1006" s="54" t="n"/>
       <c r="AB1006" s="54" t="n"/>
       <c r="AC1006" s="54" t="n"/>
+    </row>
+    <row r="1007">
+      <c r="E1007" s="54" t="n"/>
+      <c r="F1007" s="54" t="n"/>
+      <c r="G1007" s="55" t="n"/>
+      <c r="J1007" s="54" t="n"/>
+      <c r="K1007" s="54" t="n"/>
+      <c r="L1007" s="54" t="n"/>
+      <c r="W1007" s="54" t="n"/>
+      <c r="X1007" s="54" t="n"/>
+      <c r="Y1007" s="54" t="n"/>
+      <c r="Z1007" s="54" t="n"/>
+      <c r="AA1007" s="54" t="n"/>
+      <c r="AB1007" s="54" t="n"/>
+      <c r="AC1007" s="54" t="n"/>
     </row>
   </sheetData>
   <autoFilter ref="$A$4:$AO$38"/>

--- a/dumps/Stocks/Rail Vikas Nigam.xlsx
+++ b/dumps/Stocks/Rail Vikas Nigam.xlsx
@@ -749,7 +749,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP982"/>
+  <dimension ref="A1:AP983"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
@@ -1099,7 +1099,7 @@
     </row>
     <row r="5">
       <c r="A5" s="87" t="n">
-        <v>46063</v>
+        <v>46062</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -1115,18 +1115,18 @@
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>317.85</v>
+        <v>315.4</v>
       </c>
       <c r="F5" t="n">
-        <v>3194.4</v>
+        <v>3169.8</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>CN#252611730667</t>
+          <t>CN#252611665409</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="J5">
         <f>Index!$C$2</f>
@@ -1135,7 +1135,7 @@
     </row>
     <row r="6">
       <c r="A6" s="87" t="n">
-        <v>46059</v>
+        <v>46063</v>
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
@@ -1151,18 +1151,18 @@
         <v>10</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>312.2</v>
+        <v>317.85</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>3137.6</v>
+        <v>3194.4</v>
       </c>
       <c r="G6" s="0" t="inlineStr">
         <is>
-          <t>CN#252611604850</t>
+          <t>CN#252611730667</t>
         </is>
       </c>
       <c r="I6" s="0" t="n">
-        <v>15.6</v>
+        <v>15.9</v>
       </c>
       <c r="J6" s="0">
         <f>Index!$C$2</f>
@@ -1171,7 +1171,7 @@
     </row>
     <row r="7">
       <c r="A7" s="87" t="n">
-        <v>46057</v>
+        <v>46059</v>
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
@@ -1187,18 +1187,18 @@
         <v>10</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>321.15</v>
+        <v>312.2</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>3227.6</v>
+        <v>3137.6</v>
       </c>
       <c r="G7" s="0" t="inlineStr">
         <is>
-          <t>CN#252611485581</t>
+          <t>CN#252611604850</t>
         </is>
       </c>
       <c r="I7" s="0" t="n">
-        <v>16.1</v>
+        <v>15.6</v>
       </c>
       <c r="J7" s="0">
         <f>Index!$C$2</f>
@@ -1207,7 +1207,7 @@
     </row>
     <row r="8">
       <c r="A8" s="87" t="n">
-        <v>46049</v>
+        <v>46057</v>
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
@@ -1223,18 +1223,18 @@
         <v>10</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>326.5</v>
+        <v>321.15</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>3281.3</v>
+        <v>3227.6</v>
       </c>
       <c r="G8" s="0" t="inlineStr">
         <is>
-          <t>CN#252611030591</t>
+          <t>CN#252611485581</t>
         </is>
       </c>
       <c r="I8" s="0" t="n">
-        <v>16.3</v>
+        <v>16.1</v>
       </c>
       <c r="J8" s="0">
         <f>Index!$C$2</f>
@@ -1243,7 +1243,7 @@
     </row>
     <row r="9">
       <c r="A9" s="87" t="n">
-        <v>46034</v>
+        <v>46049</v>
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
@@ -1259,18 +1259,18 @@
         <v>10</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>327.5</v>
+        <v>326.5</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>3291.4</v>
+        <v>3281.3</v>
       </c>
       <c r="G9" s="0" t="inlineStr">
         <is>
-          <t>CN#252610469431</t>
+          <t>CN#252611030591</t>
         </is>
       </c>
       <c r="I9" s="0" t="n">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="J9" s="0">
         <f>Index!$C$2</f>
@@ -1279,7 +1279,7 @@
     </row>
     <row r="10">
       <c r="A10" s="87" t="n">
-        <v>46009</v>
+        <v>46034</v>
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
@@ -1295,18 +1295,18 @@
         <v>10</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>303.35</v>
+        <v>327.5</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>3048.7</v>
+        <v>3291.4</v>
       </c>
       <c r="G10" s="0" t="inlineStr">
         <is>
-          <t>CN#252609527272</t>
+          <t>CN#252610469431</t>
         </is>
       </c>
       <c r="I10" s="0" t="n">
-        <v>15.2</v>
+        <v>16.4</v>
       </c>
       <c r="J10" s="0">
         <f>Index!$C$2</f>
@@ -1315,11 +1315,11 @@
     </row>
     <row r="11">
       <c r="A11" s="87" t="n">
-        <v>46008</v>
+        <v>46009</v>
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C11" s="0" t="inlineStr">
@@ -1331,18 +1331,18 @@
         <v>10</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>307.8</v>
+        <v>303.35</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>3093.4</v>
+        <v>3048.7</v>
       </c>
       <c r="G11" s="0" t="inlineStr">
         <is>
-          <t>CN#252609476500</t>
+          <t>CN#252609527272</t>
         </is>
       </c>
       <c r="I11" s="0" t="n">
-        <v>15.4</v>
+        <v>15.2</v>
       </c>
       <c r="J11" s="0">
         <f>Index!$C$2</f>
@@ -1351,7 +1351,7 @@
     </row>
     <row r="12">
       <c r="A12" s="87" t="n">
-        <v>46007</v>
+        <v>46008</v>
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
@@ -1367,18 +1367,18 @@
         <v>10</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>310.25</v>
+        <v>307.8</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>3118</v>
+        <v>3093.4</v>
       </c>
       <c r="G12" s="0" t="inlineStr">
         <is>
-          <t>CN#252609425003</t>
+          <t>CN#252609476500</t>
         </is>
       </c>
       <c r="I12" s="0" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="J12" s="0">
         <f>Index!$C$2</f>
@@ -1387,11 +1387,11 @@
     </row>
     <row r="13">
       <c r="A13" s="87" t="n">
-        <v>46000</v>
+        <v>46007</v>
       </c>
       <c r="B13" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C13" s="0" t="inlineStr">
@@ -1403,18 +1403,18 @@
         <v>10</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>312.35</v>
+        <v>310.25</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>3139.1</v>
+        <v>3118</v>
       </c>
       <c r="G13" s="0" t="inlineStr">
         <is>
-          <t>CN#252609157599</t>
+          <t>CN#252609425003</t>
         </is>
       </c>
       <c r="I13" s="0" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="J13" s="0">
         <f>Index!$C$2</f>
@@ -1423,7 +1423,7 @@
     </row>
     <row r="14">
       <c r="A14" s="87" t="n">
-        <v>45993</v>
+        <v>46000</v>
       </c>
       <c r="B14" s="0" t="inlineStr">
         <is>
@@ -1439,18 +1439,18 @@
         <v>10</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>319.35</v>
+        <v>312.35</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>3209.5</v>
+        <v>3139.1</v>
       </c>
       <c r="G14" s="0" t="inlineStr">
         <is>
-          <t>CN#252608877522</t>
+          <t>CN#252609157599</t>
         </is>
       </c>
       <c r="I14" s="0" t="n">
-        <v>16</v>
+        <v>15.6</v>
       </c>
       <c r="J14" s="0">
         <f>Index!$C$2</f>
@@ -1459,7 +1459,7 @@
     </row>
     <row r="15">
       <c r="A15" s="87" t="n">
-        <v>45982</v>
+        <v>45993</v>
       </c>
       <c r="B15" s="0" t="inlineStr">
         <is>
@@ -1472,21 +1472,21 @@
         </is>
       </c>
       <c r="D15" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>315.7</v>
+        <v>319.35</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>6345.6</v>
+        <v>3209.5</v>
       </c>
       <c r="G15" s="0" t="inlineStr">
         <is>
-          <t>CN#252608495287</t>
+          <t>CN#252608877522</t>
         </is>
       </c>
       <c r="I15" s="0" t="n">
-        <v>31.6</v>
+        <v>16</v>
       </c>
       <c r="J15" s="0">
         <f>Index!$C$2</f>
@@ -1495,7 +1495,7 @@
     </row>
     <row r="16">
       <c r="A16" s="87" t="n">
-        <v>45978</v>
+        <v>45982</v>
       </c>
       <c r="B16" s="0" t="inlineStr">
         <is>
@@ -1511,18 +1511,18 @@
         <v>20</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>331.55</v>
+        <v>315.7</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>6664.2</v>
+        <v>6345.6</v>
       </c>
       <c r="G16" s="0" t="inlineStr">
         <is>
-          <t>CN#252608260909</t>
+          <t>CN#252608495287</t>
         </is>
       </c>
       <c r="I16" s="0" t="n">
-        <v>33.2</v>
+        <v>31.6</v>
       </c>
       <c r="J16" s="0">
         <f>Index!$C$2</f>
@@ -1531,7 +1531,7 @@
     </row>
     <row r="17">
       <c r="A17" s="87" t="n">
-        <v>45975</v>
+        <v>45978</v>
       </c>
       <c r="B17" s="0" t="inlineStr">
         <is>
@@ -1547,18 +1547,18 @@
         <v>20</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>316.35</v>
+        <v>331.55</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>6358.6</v>
+        <v>6664.2</v>
       </c>
       <c r="G17" s="0" t="inlineStr">
         <is>
-          <t>CN#252608199734</t>
+          <t>CN#252608260909</t>
         </is>
       </c>
       <c r="I17" s="0" t="n">
-        <v>31.6</v>
+        <v>33.2</v>
       </c>
       <c r="J17" s="0">
         <f>Index!$C$2</f>
@@ -1567,7 +1567,7 @@
     </row>
     <row r="18">
       <c r="A18" s="87" t="n">
-        <v>45974</v>
+        <v>45975</v>
       </c>
       <c r="B18" s="0" t="inlineStr">
         <is>
@@ -1580,21 +1580,21 @@
         </is>
       </c>
       <c r="D18" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>317.75</v>
+        <v>316.35</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>3193.4</v>
+        <v>6358.6</v>
       </c>
       <c r="G18" s="0" t="inlineStr">
         <is>
-          <t>CN#252608142538</t>
+          <t>CN#252608199734</t>
         </is>
       </c>
       <c r="I18" s="0" t="n">
-        <v>15.9</v>
+        <v>31.6</v>
       </c>
       <c r="J18" s="0">
         <f>Index!$C$2</f>
@@ -1603,7 +1603,7 @@
     </row>
     <row r="19">
       <c r="A19" s="87" t="n">
-        <v>45972</v>
+        <v>45974</v>
       </c>
       <c r="B19" s="0" t="inlineStr">
         <is>
@@ -1619,14 +1619,14 @@
         <v>10</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>317.35</v>
+        <v>317.75</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>3189.4</v>
+        <v>3193.4</v>
       </c>
       <c r="G19" s="0" t="inlineStr">
         <is>
-          <t>CN#252608021091</t>
+          <t>CN#252608142538</t>
         </is>
       </c>
       <c r="I19" s="0" t="n">
@@ -1639,7 +1639,7 @@
     </row>
     <row r="20">
       <c r="A20" s="87" t="n">
-        <v>45971</v>
+        <v>45972</v>
       </c>
       <c r="B20" s="0" t="inlineStr">
         <is>
@@ -1652,21 +1652,21 @@
         </is>
       </c>
       <c r="D20" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>318.15</v>
+        <v>317.35</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>6394.8</v>
+        <v>3189.4</v>
       </c>
       <c r="G20" s="0" t="inlineStr">
         <is>
-          <t>CN#252607962278</t>
+          <t>CN#252608021091</t>
         </is>
       </c>
       <c r="I20" s="0" t="n">
-        <v>31.8</v>
+        <v>15.9</v>
       </c>
       <c r="J20" s="0">
         <f>Index!$C$2</f>
@@ -1675,7 +1675,7 @@
     </row>
     <row r="21">
       <c r="A21" s="87" t="n">
-        <v>45968</v>
+        <v>45971</v>
       </c>
       <c r="B21" s="0" t="inlineStr">
         <is>
@@ -1691,18 +1691,18 @@
         <v>20</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>315.5</v>
+        <v>318.15</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>6341.6</v>
+        <v>6394.8</v>
       </c>
       <c r="G21" s="0" t="inlineStr">
         <is>
-          <t>CN#252607899666</t>
+          <t>CN#252607962278</t>
         </is>
       </c>
       <c r="I21" s="0" t="n">
-        <v>31.6</v>
+        <v>31.8</v>
       </c>
       <c r="J21" s="0">
         <f>Index!$C$2</f>
@@ -1711,7 +1711,7 @@
     </row>
     <row r="22">
       <c r="A22" s="87" t="n">
-        <v>45961</v>
+        <v>45968</v>
       </c>
       <c r="B22" s="0" t="inlineStr">
         <is>
@@ -1727,18 +1727,18 @@
         <v>20</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>329.9</v>
+        <v>315.5</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>6631</v>
+        <v>6341.6</v>
       </c>
       <c r="G22" s="0" t="inlineStr">
         <is>
-          <t>CN#252607606298</t>
+          <t>CN#252607899666</t>
         </is>
       </c>
       <c r="I22" s="0" t="n">
-        <v>33</v>
+        <v>31.6</v>
       </c>
       <c r="J22" s="0">
         <f>Index!$C$2</f>
@@ -1747,7 +1747,7 @@
     </row>
     <row r="23">
       <c r="A23" s="87" t="n">
-        <v>45959</v>
+        <v>45961</v>
       </c>
       <c r="B23" s="0" t="inlineStr">
         <is>
@@ -1760,21 +1760,21 @@
         </is>
       </c>
       <c r="D23" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>328.3</v>
+        <v>329.9</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>9898.200000000001</v>
+        <v>6631</v>
       </c>
       <c r="G23" s="0" t="inlineStr">
         <is>
-          <t>CN#252607497001</t>
+          <t>CN#252607606298</t>
         </is>
       </c>
       <c r="I23" s="0" t="n">
-        <v>49.2</v>
+        <v>33</v>
       </c>
       <c r="J23" s="0">
         <f>Index!$C$2</f>
@@ -1783,7 +1783,7 @@
     </row>
     <row r="24">
       <c r="A24" s="87" t="n">
-        <v>45957</v>
+        <v>45959</v>
       </c>
       <c r="B24" s="0" t="inlineStr">
         <is>
@@ -1796,21 +1796,21 @@
         </is>
       </c>
       <c r="D24" s="0" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>329.8</v>
+        <v>328.3</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>3314.5</v>
+        <v>9898.200000000001</v>
       </c>
       <c r="G24" s="0" t="inlineStr">
         <is>
-          <t>CN#252607382790</t>
+          <t>CN#252607497001</t>
         </is>
       </c>
       <c r="I24" s="0" t="n">
-        <v>16.5</v>
+        <v>49.2</v>
       </c>
       <c r="J24" s="0">
         <f>Index!$C$2</f>
@@ -1819,7 +1819,7 @@
     </row>
     <row r="25">
       <c r="A25" s="87" t="n">
-        <v>45967</v>
+        <v>45957</v>
       </c>
       <c r="B25" s="0" t="inlineStr">
         <is>
@@ -1832,122 +1832,66 @@
         </is>
       </c>
       <c r="D25" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>329.8</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>3314.5</v>
+      </c>
+      <c r="G25" s="0" t="inlineStr">
+        <is>
+          <t>CN#252607382790</t>
+        </is>
+      </c>
+      <c r="I25" s="0" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="J25" s="0">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="87" t="n">
+        <v>45967</v>
+      </c>
+      <c r="B26" s="0" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C26" s="0" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D26" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="E25" s="0" t="n">
+      <c r="E26" s="0" t="n">
         <v>320.3</v>
       </c>
-      <c r="F25" s="0" t="n">
+      <c r="F26" s="0" t="n">
         <v>6438</v>
       </c>
-      <c r="G25" s="0" t="inlineStr">
+      <c r="G26" s="0" t="inlineStr">
         <is>
           <t>CN#252607785263</t>
         </is>
       </c>
-      <c r="I25" s="0" t="n">
+      <c r="I26" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="J25" s="0">
+      <c r="J26" s="0">
         <f>Index!$C$2</f>
         <v/>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="38" t="n">
-        <v>45950</v>
-      </c>
-      <c r="B26" s="39" t="inlineStr">
-        <is>
-          <t>NSE</t>
-        </is>
-      </c>
-      <c r="C26" s="39" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="D26" s="40" t="n">
-        <v>40</v>
-      </c>
-      <c r="E26" s="41" t="n">
-        <v>333.04</v>
-      </c>
-      <c r="F26" s="42">
-        <f>D5*E5</f>
-        <v/>
-      </c>
-      <c r="G26" s="39" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
-      <c r="H26" s="40" t="n"/>
-      <c r="I26" s="40" t="n"/>
-      <c r="J26" s="43">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K26" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="L26" s="45">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="M26" s="45">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
-        <v/>
-      </c>
-      <c r="N26" s="46">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
-        <v/>
-      </c>
-      <c r="O26" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="P26" s="45">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="Q26" s="45">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
-        <v/>
-      </c>
-      <c r="R26" s="45">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="S26" s="47">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="T26" s="48">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="U26" s="48">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
-        <v/>
-      </c>
-      <c r="V26" s="48">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="W26" s="49" t="n"/>
-      <c r="X26" s="49" t="n"/>
-      <c r="Y26" s="50" t="n"/>
-      <c r="Z26" s="49" t="n"/>
-      <c r="AA26" s="49" t="n"/>
-      <c r="AB26" s="51" t="n"/>
-      <c r="AC26" s="52" t="n"/>
-      <c r="AD26" s="53" t="n"/>
-    </row>
     <row r="27">
       <c r="A27" s="38" t="n">
-        <v>45947</v>
+        <v>45950</v>
       </c>
       <c r="B27" s="39" t="inlineStr">
         <is>
@@ -1960,13 +1904,13 @@
         </is>
       </c>
       <c r="D27" s="40" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E27" s="41" t="n">
-        <v>335.92</v>
+        <v>333.04</v>
       </c>
       <c r="F27" s="42">
-        <f>D6*E6</f>
+        <f>D5*E5</f>
         <v/>
       </c>
       <c r="G27" s="39" t="inlineStr">
@@ -1981,51 +1925,51 @@
         <v/>
       </c>
       <c r="K27" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="L27" s="45">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="M27" s="45">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
         <v/>
       </c>
       <c r="N27" s="46">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
         <v/>
       </c>
       <c r="O27" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="P27" s="45">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="Q27" s="45">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
         <v/>
       </c>
       <c r="R27" s="45">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="S27" s="47">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="T27" s="48">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="U27" s="48">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
         <v/>
       </c>
       <c r="V27" s="48">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="W27" s="49" t="n"/>
@@ -2039,7 +1983,7 @@
     </row>
     <row r="28">
       <c r="A28" s="38" t="n">
-        <v>45943</v>
+        <v>45947</v>
       </c>
       <c r="B28" s="39" t="inlineStr">
         <is>
@@ -2052,13 +1996,13 @@
         </is>
       </c>
       <c r="D28" s="40" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E28" s="41" t="n">
-        <v>341.5</v>
+        <v>335.92</v>
       </c>
       <c r="F28" s="42">
-        <f>D7*E7</f>
+        <f>D6*E6</f>
         <v/>
       </c>
       <c r="G28" s="39" t="inlineStr">
@@ -2073,51 +2017,51 @@
         <v/>
       </c>
       <c r="K28" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="L28" s="45">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="M28" s="45">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
         <v/>
       </c>
       <c r="N28" s="46">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
         <v/>
       </c>
       <c r="O28" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="P28" s="45">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="Q28" s="45">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
         <v/>
       </c>
       <c r="R28" s="45">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
         <v/>
       </c>
       <c r="S28" s="47">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="T28" s="48">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="U28" s="48">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
         <v/>
       </c>
       <c r="V28" s="48">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
         <v/>
       </c>
       <c r="W28" s="49" t="n"/>
@@ -2131,7 +2075,7 @@
     </row>
     <row r="29">
       <c r="A29" s="38" t="n">
-        <v>45940</v>
+        <v>45943</v>
       </c>
       <c r="B29" s="39" t="inlineStr">
         <is>
@@ -2144,13 +2088,13 @@
         </is>
       </c>
       <c r="D29" s="40" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E29" s="41" t="n">
-        <v>347.5</v>
+        <v>341.5</v>
       </c>
       <c r="F29" s="42">
-        <f>D8*E8</f>
+        <f>D7*E7</f>
         <v/>
       </c>
       <c r="G29" s="39" t="inlineStr">
@@ -2165,51 +2109,51 @@
         <v/>
       </c>
       <c r="K29" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="L29" s="45">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="M29" s="45">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
         <v/>
       </c>
       <c r="N29" s="46">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
         <v/>
       </c>
       <c r="O29" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="P29" s="45">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="Q29" s="45">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
         <v/>
       </c>
       <c r="R29" s="45">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="S29" s="47">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="T29" s="48">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="U29" s="48">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
         <v/>
       </c>
       <c r="V29" s="48">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="W29" s="49" t="n"/>
@@ -2222,20 +2166,96 @@
       <c r="AD29" s="53" t="n"/>
     </row>
     <row r="30">
-      <c r="E30" s="54" t="n"/>
-      <c r="F30" s="54" t="n"/>
-      <c r="G30" s="55" t="n"/>
-      <c r="J30" s="54" t="n"/>
-      <c r="K30" s="54" t="n"/>
-      <c r="L30" s="54" t="n"/>
-      <c r="M30" s="57" t="n"/>
-      <c r="W30" s="54" t="n"/>
-      <c r="X30" s="54" t="n"/>
-      <c r="Y30" s="54" t="n"/>
-      <c r="Z30" s="54" t="n"/>
-      <c r="AA30" s="54" t="n"/>
-      <c r="AB30" s="54" t="n"/>
-      <c r="AC30" s="54" t="n"/>
+      <c r="A30" s="38" t="n">
+        <v>45940</v>
+      </c>
+      <c r="B30" s="39" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C30" s="39" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D30" s="40" t="n">
+        <v>20</v>
+      </c>
+      <c r="E30" s="41" t="n">
+        <v>347.5</v>
+      </c>
+      <c r="F30" s="42">
+        <f>D8*E8</f>
+        <v/>
+      </c>
+      <c r="G30" s="39" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H30" s="40" t="n"/>
+      <c r="I30" s="40" t="n"/>
+      <c r="J30" s="43">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K30" s="44">
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/sum(F8:I8), "")</f>
+        <v/>
+      </c>
+      <c r="L30" s="45">
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <v/>
+      </c>
+      <c r="M30" s="45">
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
+        <v/>
+      </c>
+      <c r="N30" s="46">
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
+        <v/>
+      </c>
+      <c r="O30" s="44">
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/sum(F8:I8), "")</f>
+        <v/>
+      </c>
+      <c r="P30" s="45">
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <v/>
+      </c>
+      <c r="Q30" s="45">
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
+        <v/>
+      </c>
+      <c r="R30" s="45">
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
+        <v/>
+      </c>
+      <c r="S30" s="47">
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/sum(F8:I8), "")</f>
+        <v/>
+      </c>
+      <c r="T30" s="48">
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <v/>
+      </c>
+      <c r="U30" s="48">
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
+        <v/>
+      </c>
+      <c r="V30" s="48">
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
+        <v/>
+      </c>
+      <c r="W30" s="49" t="n"/>
+      <c r="X30" s="49" t="n"/>
+      <c r="Y30" s="50" t="n"/>
+      <c r="Z30" s="49" t="n"/>
+      <c r="AA30" s="49" t="n"/>
+      <c r="AB30" s="51" t="n"/>
+      <c r="AC30" s="52" t="n"/>
+      <c r="AD30" s="53" t="n"/>
     </row>
     <row r="31">
       <c r="E31" s="54" t="n"/>
@@ -17204,6 +17224,7 @@
       <c r="J966" s="54" t="n"/>
       <c r="K966" s="54" t="n"/>
       <c r="L966" s="54" t="n"/>
+      <c r="M966" s="57" t="n"/>
       <c r="W966" s="54" t="n"/>
       <c r="X966" s="54" t="n"/>
       <c r="Y966" s="54" t="n"/>
@@ -17451,6 +17472,21 @@
       <c r="AA982" s="54" t="n"/>
       <c r="AB982" s="54" t="n"/>
       <c r="AC982" s="54" t="n"/>
+    </row>
+    <row r="983">
+      <c r="E983" s="54" t="n"/>
+      <c r="F983" s="54" t="n"/>
+      <c r="G983" s="55" t="n"/>
+      <c r="J983" s="54" t="n"/>
+      <c r="K983" s="54" t="n"/>
+      <c r="L983" s="54" t="n"/>
+      <c r="W983" s="54" t="n"/>
+      <c r="X983" s="54" t="n"/>
+      <c r="Y983" s="54" t="n"/>
+      <c r="Z983" s="54" t="n"/>
+      <c r="AA983" s="54" t="n"/>
+      <c r="AB983" s="54" t="n"/>
+      <c r="AC983" s="54" t="n"/>
     </row>
   </sheetData>
   <autoFilter ref="$A$4:$AO$38"/>

--- a/dumps/Stocks/Rail Vikas Nigam.xlsx
+++ b/dumps/Stocks/Rail Vikas Nigam.xlsx
@@ -749,7 +749,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP983"/>
+  <dimension ref="A1:AP985"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
@@ -1099,7 +1099,7 @@
     </row>
     <row r="5">
       <c r="A5" s="87" t="n">
-        <v>46062</v>
+        <v>45954</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -1112,21 +1112,18 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E5" t="n">
-        <v>315.4</v>
+        <v>333.8</v>
       </c>
       <c r="F5" t="n">
-        <v>3169.8</v>
+        <v>10014</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>CN#252611665409</t>
+          <t>~</t>
         </is>
-      </c>
-      <c r="I5" t="n">
-        <v>15.8</v>
       </c>
       <c r="J5">
         <f>Index!$C$2</f>
@@ -1135,7 +1132,7 @@
     </row>
     <row r="6">
       <c r="A6" s="87" t="n">
-        <v>46063</v>
+        <v>45953</v>
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
@@ -1148,21 +1145,18 @@
         </is>
       </c>
       <c r="D6" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>317.85</v>
+        <v>333.04</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>3194.4</v>
+        <v>6660.8</v>
       </c>
       <c r="G6" s="0" t="inlineStr">
         <is>
-          <t>CN#252611730667</t>
+          <t>~</t>
         </is>
-      </c>
-      <c r="I6" s="0" t="n">
-        <v>15.9</v>
       </c>
       <c r="J6" s="0">
         <f>Index!$C$2</f>
@@ -1171,7 +1165,7 @@
     </row>
     <row r="7">
       <c r="A7" s="87" t="n">
-        <v>46059</v>
+        <v>46062</v>
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
@@ -1187,18 +1181,18 @@
         <v>10</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>312.2</v>
+        <v>315.4</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>3137.6</v>
+        <v>3169.8</v>
       </c>
       <c r="G7" s="0" t="inlineStr">
         <is>
-          <t>CN#252611604850</t>
+          <t>CN#252611665409</t>
         </is>
       </c>
       <c r="I7" s="0" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="J7" s="0">
         <f>Index!$C$2</f>
@@ -1207,7 +1201,7 @@
     </row>
     <row r="8">
       <c r="A8" s="87" t="n">
-        <v>46057</v>
+        <v>46063</v>
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
@@ -1223,18 +1217,18 @@
         <v>10</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>321.15</v>
+        <v>317.85</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>3227.6</v>
+        <v>3194.4</v>
       </c>
       <c r="G8" s="0" t="inlineStr">
         <is>
-          <t>CN#252611485581</t>
+          <t>CN#252611730667</t>
         </is>
       </c>
       <c r="I8" s="0" t="n">
-        <v>16.1</v>
+        <v>15.9</v>
       </c>
       <c r="J8" s="0">
         <f>Index!$C$2</f>
@@ -1243,7 +1237,7 @@
     </row>
     <row r="9">
       <c r="A9" s="87" t="n">
-        <v>46049</v>
+        <v>46059</v>
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
@@ -1259,18 +1253,18 @@
         <v>10</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>326.5</v>
+        <v>312.2</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>3281.3</v>
+        <v>3137.6</v>
       </c>
       <c r="G9" s="0" t="inlineStr">
         <is>
-          <t>CN#252611030591</t>
+          <t>CN#252611604850</t>
         </is>
       </c>
       <c r="I9" s="0" t="n">
-        <v>16.3</v>
+        <v>15.6</v>
       </c>
       <c r="J9" s="0">
         <f>Index!$C$2</f>
@@ -1279,7 +1273,7 @@
     </row>
     <row r="10">
       <c r="A10" s="87" t="n">
-        <v>46034</v>
+        <v>46057</v>
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
@@ -1295,18 +1289,18 @@
         <v>10</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>327.5</v>
+        <v>321.15</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>3291.4</v>
+        <v>3227.6</v>
       </c>
       <c r="G10" s="0" t="inlineStr">
         <is>
-          <t>CN#252610469431</t>
+          <t>CN#252611485581</t>
         </is>
       </c>
       <c r="I10" s="0" t="n">
-        <v>16.4</v>
+        <v>16.1</v>
       </c>
       <c r="J10" s="0">
         <f>Index!$C$2</f>
@@ -1315,7 +1309,7 @@
     </row>
     <row r="11">
       <c r="A11" s="87" t="n">
-        <v>46009</v>
+        <v>46049</v>
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
@@ -1331,18 +1325,18 @@
         <v>10</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>303.35</v>
+        <v>326.5</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>3048.7</v>
+        <v>3281.3</v>
       </c>
       <c r="G11" s="0" t="inlineStr">
         <is>
-          <t>CN#252609527272</t>
+          <t>CN#252611030591</t>
         </is>
       </c>
       <c r="I11" s="0" t="n">
-        <v>15.2</v>
+        <v>16.3</v>
       </c>
       <c r="J11" s="0">
         <f>Index!$C$2</f>
@@ -1351,11 +1345,11 @@
     </row>
     <row r="12">
       <c r="A12" s="87" t="n">
-        <v>46008</v>
+        <v>46034</v>
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C12" s="0" t="inlineStr">
@@ -1367,18 +1361,18 @@
         <v>10</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>307.8</v>
+        <v>327.5</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>3093.4</v>
+        <v>3291.4</v>
       </c>
       <c r="G12" s="0" t="inlineStr">
         <is>
-          <t>CN#252609476500</t>
+          <t>CN#252610469431</t>
         </is>
       </c>
       <c r="I12" s="0" t="n">
-        <v>15.4</v>
+        <v>16.4</v>
       </c>
       <c r="J12" s="0">
         <f>Index!$C$2</f>
@@ -1387,11 +1381,11 @@
     </row>
     <row r="13">
       <c r="A13" s="87" t="n">
-        <v>46007</v>
+        <v>46009</v>
       </c>
       <c r="B13" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C13" s="0" t="inlineStr">
@@ -1403,18 +1397,18 @@
         <v>10</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>310.25</v>
+        <v>303.35</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>3118</v>
+        <v>3048.7</v>
       </c>
       <c r="G13" s="0" t="inlineStr">
         <is>
-          <t>CN#252609425003</t>
+          <t>CN#252609527272</t>
         </is>
       </c>
       <c r="I13" s="0" t="n">
-        <v>15.5</v>
+        <v>15.2</v>
       </c>
       <c r="J13" s="0">
         <f>Index!$C$2</f>
@@ -1423,11 +1417,11 @@
     </row>
     <row r="14">
       <c r="A14" s="87" t="n">
-        <v>46000</v>
+        <v>46008</v>
       </c>
       <c r="B14" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C14" s="0" t="inlineStr">
@@ -1439,18 +1433,18 @@
         <v>10</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>312.35</v>
+        <v>307.8</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>3139.1</v>
+        <v>3093.4</v>
       </c>
       <c r="G14" s="0" t="inlineStr">
         <is>
-          <t>CN#252609157599</t>
+          <t>CN#252609476500</t>
         </is>
       </c>
       <c r="I14" s="0" t="n">
-        <v>15.6</v>
+        <v>15.4</v>
       </c>
       <c r="J14" s="0">
         <f>Index!$C$2</f>
@@ -1459,11 +1453,11 @@
     </row>
     <row r="15">
       <c r="A15" s="87" t="n">
-        <v>45993</v>
+        <v>46007</v>
       </c>
       <c r="B15" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C15" s="0" t="inlineStr">
@@ -1475,18 +1469,18 @@
         <v>10</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>319.35</v>
+        <v>310.25</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>3209.5</v>
+        <v>3118</v>
       </c>
       <c r="G15" s="0" t="inlineStr">
         <is>
-          <t>CN#252608877522</t>
+          <t>CN#252609425003</t>
         </is>
       </c>
       <c r="I15" s="0" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="J15" s="0">
         <f>Index!$C$2</f>
@@ -1495,7 +1489,7 @@
     </row>
     <row r="16">
       <c r="A16" s="87" t="n">
-        <v>45982</v>
+        <v>46000</v>
       </c>
       <c r="B16" s="0" t="inlineStr">
         <is>
@@ -1508,21 +1502,21 @@
         </is>
       </c>
       <c r="D16" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>315.7</v>
+        <v>312.35</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>6345.6</v>
+        <v>3139.1</v>
       </c>
       <c r="G16" s="0" t="inlineStr">
         <is>
-          <t>CN#252608495287</t>
+          <t>CN#252609157599</t>
         </is>
       </c>
       <c r="I16" s="0" t="n">
-        <v>31.6</v>
+        <v>15.6</v>
       </c>
       <c r="J16" s="0">
         <f>Index!$C$2</f>
@@ -1531,7 +1525,7 @@
     </row>
     <row r="17">
       <c r="A17" s="87" t="n">
-        <v>45978</v>
+        <v>45993</v>
       </c>
       <c r="B17" s="0" t="inlineStr">
         <is>
@@ -1544,21 +1538,21 @@
         </is>
       </c>
       <c r="D17" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>331.55</v>
+        <v>319.35</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>6664.2</v>
+        <v>3209.5</v>
       </c>
       <c r="G17" s="0" t="inlineStr">
         <is>
-          <t>CN#252608260909</t>
+          <t>CN#252608877522</t>
         </is>
       </c>
       <c r="I17" s="0" t="n">
-        <v>33.2</v>
+        <v>16</v>
       </c>
       <c r="J17" s="0">
         <f>Index!$C$2</f>
@@ -1567,7 +1561,7 @@
     </row>
     <row r="18">
       <c r="A18" s="87" t="n">
-        <v>45975</v>
+        <v>45982</v>
       </c>
       <c r="B18" s="0" t="inlineStr">
         <is>
@@ -1583,14 +1577,14 @@
         <v>20</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>316.35</v>
+        <v>315.7</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>6358.6</v>
+        <v>6345.6</v>
       </c>
       <c r="G18" s="0" t="inlineStr">
         <is>
-          <t>CN#252608199734</t>
+          <t>CN#252608495287</t>
         </is>
       </c>
       <c r="I18" s="0" t="n">
@@ -1603,7 +1597,7 @@
     </row>
     <row r="19">
       <c r="A19" s="87" t="n">
-        <v>45974</v>
+        <v>45978</v>
       </c>
       <c r="B19" s="0" t="inlineStr">
         <is>
@@ -1616,21 +1610,21 @@
         </is>
       </c>
       <c r="D19" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>317.75</v>
+        <v>331.55</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>3193.4</v>
+        <v>6664.2</v>
       </c>
       <c r="G19" s="0" t="inlineStr">
         <is>
-          <t>CN#252608142538</t>
+          <t>CN#252608260909</t>
         </is>
       </c>
       <c r="I19" s="0" t="n">
-        <v>15.9</v>
+        <v>33.2</v>
       </c>
       <c r="J19" s="0">
         <f>Index!$C$2</f>
@@ -1639,7 +1633,7 @@
     </row>
     <row r="20">
       <c r="A20" s="87" t="n">
-        <v>45972</v>
+        <v>45975</v>
       </c>
       <c r="B20" s="0" t="inlineStr">
         <is>
@@ -1652,21 +1646,21 @@
         </is>
       </c>
       <c r="D20" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>317.35</v>
+        <v>316.35</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>3189.4</v>
+        <v>6358.6</v>
       </c>
       <c r="G20" s="0" t="inlineStr">
         <is>
-          <t>CN#252608021091</t>
+          <t>CN#252608199734</t>
         </is>
       </c>
       <c r="I20" s="0" t="n">
-        <v>15.9</v>
+        <v>31.6</v>
       </c>
       <c r="J20" s="0">
         <f>Index!$C$2</f>
@@ -1675,7 +1669,7 @@
     </row>
     <row r="21">
       <c r="A21" s="87" t="n">
-        <v>45971</v>
+        <v>45974</v>
       </c>
       <c r="B21" s="0" t="inlineStr">
         <is>
@@ -1688,21 +1682,21 @@
         </is>
       </c>
       <c r="D21" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>318.15</v>
+        <v>317.75</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>6394.8</v>
+        <v>3193.4</v>
       </c>
       <c r="G21" s="0" t="inlineStr">
         <is>
-          <t>CN#252607962278</t>
+          <t>CN#252608142538</t>
         </is>
       </c>
       <c r="I21" s="0" t="n">
-        <v>31.8</v>
+        <v>15.9</v>
       </c>
       <c r="J21" s="0">
         <f>Index!$C$2</f>
@@ -1711,7 +1705,7 @@
     </row>
     <row r="22">
       <c r="A22" s="87" t="n">
-        <v>45968</v>
+        <v>45972</v>
       </c>
       <c r="B22" s="0" t="inlineStr">
         <is>
@@ -1724,21 +1718,21 @@
         </is>
       </c>
       <c r="D22" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>315.5</v>
+        <v>317.35</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>6341.6</v>
+        <v>3189.4</v>
       </c>
       <c r="G22" s="0" t="inlineStr">
         <is>
-          <t>CN#252607899666</t>
+          <t>CN#252608021091</t>
         </is>
       </c>
       <c r="I22" s="0" t="n">
-        <v>31.6</v>
+        <v>15.9</v>
       </c>
       <c r="J22" s="0">
         <f>Index!$C$2</f>
@@ -1747,7 +1741,7 @@
     </row>
     <row r="23">
       <c r="A23" s="87" t="n">
-        <v>45961</v>
+        <v>45971</v>
       </c>
       <c r="B23" s="0" t="inlineStr">
         <is>
@@ -1763,18 +1757,18 @@
         <v>20</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>329.9</v>
+        <v>318.15</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>6631</v>
+        <v>6394.8</v>
       </c>
       <c r="G23" s="0" t="inlineStr">
         <is>
-          <t>CN#252607606298</t>
+          <t>CN#252607962278</t>
         </is>
       </c>
       <c r="I23" s="0" t="n">
-        <v>33</v>
+        <v>31.8</v>
       </c>
       <c r="J23" s="0">
         <f>Index!$C$2</f>
@@ -1783,7 +1777,7 @@
     </row>
     <row r="24">
       <c r="A24" s="87" t="n">
-        <v>45959</v>
+        <v>45968</v>
       </c>
       <c r="B24" s="0" t="inlineStr">
         <is>
@@ -1796,21 +1790,21 @@
         </is>
       </c>
       <c r="D24" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>328.3</v>
+        <v>315.5</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>9898.200000000001</v>
+        <v>6341.6</v>
       </c>
       <c r="G24" s="0" t="inlineStr">
         <is>
-          <t>CN#252607497001</t>
+          <t>CN#252607899666</t>
         </is>
       </c>
       <c r="I24" s="0" t="n">
-        <v>49.2</v>
+        <v>31.6</v>
       </c>
       <c r="J24" s="0">
         <f>Index!$C$2</f>
@@ -1819,7 +1813,7 @@
     </row>
     <row r="25">
       <c r="A25" s="87" t="n">
-        <v>45957</v>
+        <v>45961</v>
       </c>
       <c r="B25" s="0" t="inlineStr">
         <is>
@@ -1832,21 +1826,21 @@
         </is>
       </c>
       <c r="D25" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>329.8</v>
+        <v>329.9</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>3314.5</v>
+        <v>6631</v>
       </c>
       <c r="G25" s="0" t="inlineStr">
         <is>
-          <t>CN#252607382790</t>
+          <t>CN#252607606298</t>
         </is>
       </c>
       <c r="I25" s="0" t="n">
-        <v>16.5</v>
+        <v>33</v>
       </c>
       <c r="J25" s="0">
         <f>Index!$C$2</f>
@@ -1855,7 +1849,7 @@
     </row>
     <row r="26">
       <c r="A26" s="87" t="n">
-        <v>45967</v>
+        <v>45959</v>
       </c>
       <c r="B26" s="0" t="inlineStr">
         <is>
@@ -1868,214 +1862,102 @@
         </is>
       </c>
       <c r="D26" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>328.3</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>9898.200000000001</v>
+      </c>
+      <c r="G26" s="0" t="inlineStr">
+        <is>
+          <t>CN#252607497001</t>
+        </is>
+      </c>
+      <c r="I26" s="0" t="n">
+        <v>49.2</v>
+      </c>
+      <c r="J26" s="0">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="87" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B27" s="0" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C27" s="0" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>329.8</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>3314.5</v>
+      </c>
+      <c r="G27" s="0" t="inlineStr">
+        <is>
+          <t>CN#252607382790</t>
+        </is>
+      </c>
+      <c r="I27" s="0" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="J27" s="0">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="87" t="n">
+        <v>45967</v>
+      </c>
+      <c r="B28" s="0" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C28" s="0" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D28" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="E26" s="0" t="n">
+      <c r="E28" s="0" t="n">
         <v>320.3</v>
       </c>
-      <c r="F26" s="0" t="n">
+      <c r="F28" s="0" t="n">
         <v>6438</v>
       </c>
-      <c r="G26" s="0" t="inlineStr">
+      <c r="G28" s="0" t="inlineStr">
         <is>
           <t>CN#252607785263</t>
         </is>
       </c>
-      <c r="I26" s="0" t="n">
+      <c r="I28" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="J26" s="0">
+      <c r="J28" s="0">
         <f>Index!$C$2</f>
         <v/>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="38" t="n">
-        <v>45950</v>
-      </c>
-      <c r="B27" s="39" t="inlineStr">
-        <is>
-          <t>NSE</t>
-        </is>
-      </c>
-      <c r="C27" s="39" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="D27" s="40" t="n">
-        <v>40</v>
-      </c>
-      <c r="E27" s="41" t="n">
-        <v>333.04</v>
-      </c>
-      <c r="F27" s="42">
-        <f>D5*E5</f>
-        <v/>
-      </c>
-      <c r="G27" s="39" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
-      <c r="H27" s="40" t="n"/>
-      <c r="I27" s="40" t="n"/>
-      <c r="J27" s="43">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K27" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="L27" s="45">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="M27" s="45">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
-        <v/>
-      </c>
-      <c r="N27" s="46">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
-        <v/>
-      </c>
-      <c r="O27" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="P27" s="45">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="Q27" s="45">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
-        <v/>
-      </c>
-      <c r="R27" s="45">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="S27" s="47">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="T27" s="48">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="U27" s="48">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
-        <v/>
-      </c>
-      <c r="V27" s="48">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="W27" s="49" t="n"/>
-      <c r="X27" s="49" t="n"/>
-      <c r="Y27" s="50" t="n"/>
-      <c r="Z27" s="49" t="n"/>
-      <c r="AA27" s="49" t="n"/>
-      <c r="AB27" s="51" t="n"/>
-      <c r="AC27" s="52" t="n"/>
-      <c r="AD27" s="53" t="n"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="38" t="n">
-        <v>45947</v>
-      </c>
-      <c r="B28" s="39" t="inlineStr">
-        <is>
-          <t>NSE</t>
-        </is>
-      </c>
-      <c r="C28" s="39" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="D28" s="40" t="n">
-        <v>30</v>
-      </c>
-      <c r="E28" s="41" t="n">
-        <v>335.92</v>
-      </c>
-      <c r="F28" s="42">
-        <f>D6*E6</f>
-        <v/>
-      </c>
-      <c r="G28" s="39" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
-      <c r="H28" s="40" t="n"/>
-      <c r="I28" s="40" t="n"/>
-      <c r="J28" s="43">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K28" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/sum(F6:I6), "")</f>
-        <v/>
-      </c>
-      <c r="L28" s="45">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
-        <v/>
-      </c>
-      <c r="M28" s="45">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
-        <v/>
-      </c>
-      <c r="N28" s="46">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
-        <v/>
-      </c>
-      <c r="O28" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/sum(F6:I6), "")</f>
-        <v/>
-      </c>
-      <c r="P28" s="45">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
-        <v/>
-      </c>
-      <c r="Q28" s="45">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
-        <v/>
-      </c>
-      <c r="R28" s="45">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
-        <v/>
-      </c>
-      <c r="S28" s="47">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/sum(F6:I6), "")</f>
-        <v/>
-      </c>
-      <c r="T28" s="48">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
-        <v/>
-      </c>
-      <c r="U28" s="48">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
-        <v/>
-      </c>
-      <c r="V28" s="48">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
-        <v/>
-      </c>
-      <c r="W28" s="49" t="n"/>
-      <c r="X28" s="49" t="n"/>
-      <c r="Y28" s="50" t="n"/>
-      <c r="Z28" s="49" t="n"/>
-      <c r="AA28" s="49" t="n"/>
-      <c r="AB28" s="51" t="n"/>
-      <c r="AC28" s="52" t="n"/>
-      <c r="AD28" s="53" t="n"/>
-    </row>
     <row r="29">
       <c r="A29" s="38" t="n">
-        <v>45943</v>
+        <v>45950</v>
       </c>
       <c r="B29" s="39" t="inlineStr">
         <is>
@@ -2088,13 +1970,13 @@
         </is>
       </c>
       <c r="D29" s="40" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E29" s="41" t="n">
-        <v>341.5</v>
+        <v>333.04</v>
       </c>
       <c r="F29" s="42">
-        <f>D7*E7</f>
+        <f>D5*E5</f>
         <v/>
       </c>
       <c r="G29" s="39" t="inlineStr">
@@ -2109,51 +1991,51 @@
         <v/>
       </c>
       <c r="K29" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/sum(F7:I7), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="L29" s="45">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="M29" s="45">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
         <v/>
       </c>
       <c r="N29" s="46">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
         <v/>
       </c>
       <c r="O29" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/sum(F7:I7), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="P29" s="45">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="Q29" s="45">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
         <v/>
       </c>
       <c r="R29" s="45">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="S29" s="47">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/sum(F7:I7), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="T29" s="48">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="U29" s="48">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
         <v/>
       </c>
       <c r="V29" s="48">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="W29" s="49" t="n"/>
@@ -2167,7 +2049,7 @@
     </row>
     <row r="30">
       <c r="A30" s="38" t="n">
-        <v>45940</v>
+        <v>45947</v>
       </c>
       <c r="B30" s="39" t="inlineStr">
         <is>
@@ -2180,13 +2062,13 @@
         </is>
       </c>
       <c r="D30" s="40" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E30" s="41" t="n">
-        <v>347.5</v>
+        <v>335.92</v>
       </c>
       <c r="F30" s="42">
-        <f>D8*E8</f>
+        <f>D6*E6</f>
         <v/>
       </c>
       <c r="G30" s="39" t="inlineStr">
@@ -2201,51 +2083,51 @@
         <v/>
       </c>
       <c r="K30" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/sum(F8:I8), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="L30" s="45">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="M30" s="45">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
         <v/>
       </c>
       <c r="N30" s="46">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
         <v/>
       </c>
       <c r="O30" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/sum(F8:I8), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="P30" s="45">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="Q30" s="45">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
         <v/>
       </c>
       <c r="R30" s="45">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
         <v/>
       </c>
       <c r="S30" s="47">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/sum(F8:I8), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="T30" s="48">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="U30" s="48">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
         <v/>
       </c>
       <c r="V30" s="48">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
         <v/>
       </c>
       <c r="W30" s="49" t="n"/>
@@ -2258,36 +2140,188 @@
       <c r="AD30" s="53" t="n"/>
     </row>
     <row r="31">
-      <c r="E31" s="54" t="n"/>
-      <c r="F31" s="54" t="n"/>
-      <c r="G31" s="55" t="n"/>
-      <c r="J31" s="54" t="n"/>
-      <c r="K31" s="54" t="n"/>
-      <c r="L31" s="54" t="n"/>
-      <c r="M31" s="57" t="n"/>
-      <c r="W31" s="54" t="n"/>
-      <c r="X31" s="54" t="n"/>
-      <c r="Y31" s="54" t="n"/>
-      <c r="Z31" s="54" t="n"/>
-      <c r="AA31" s="54" t="n"/>
-      <c r="AB31" s="54" t="n"/>
-      <c r="AC31" s="54" t="n"/>
+      <c r="A31" s="38" t="n">
+        <v>45943</v>
+      </c>
+      <c r="B31" s="39" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C31" s="39" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D31" s="40" t="n">
+        <v>10</v>
+      </c>
+      <c r="E31" s="41" t="n">
+        <v>341.5</v>
+      </c>
+      <c r="F31" s="42">
+        <f>D7*E7</f>
+        <v/>
+      </c>
+      <c r="G31" s="39" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H31" s="40" t="n"/>
+      <c r="I31" s="40" t="n"/>
+      <c r="J31" s="43">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K31" s="44">
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/sum(F7:I7), "")</f>
+        <v/>
+      </c>
+      <c r="L31" s="45">
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <v/>
+      </c>
+      <c r="M31" s="45">
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
+        <v/>
+      </c>
+      <c r="N31" s="46">
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
+        <v/>
+      </c>
+      <c r="O31" s="44">
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/sum(F7:I7), "")</f>
+        <v/>
+      </c>
+      <c r="P31" s="45">
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <v/>
+      </c>
+      <c r="Q31" s="45">
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
+        <v/>
+      </c>
+      <c r="R31" s="45">
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
+        <v/>
+      </c>
+      <c r="S31" s="47">
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/sum(F7:I7), "")</f>
+        <v/>
+      </c>
+      <c r="T31" s="48">
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <v/>
+      </c>
+      <c r="U31" s="48">
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
+        <v/>
+      </c>
+      <c r="V31" s="48">
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
+        <v/>
+      </c>
+      <c r="W31" s="49" t="n"/>
+      <c r="X31" s="49" t="n"/>
+      <c r="Y31" s="50" t="n"/>
+      <c r="Z31" s="49" t="n"/>
+      <c r="AA31" s="49" t="n"/>
+      <c r="AB31" s="51" t="n"/>
+      <c r="AC31" s="52" t="n"/>
+      <c r="AD31" s="53" t="n"/>
     </row>
     <row r="32">
-      <c r="E32" s="54" t="n"/>
-      <c r="F32" s="54" t="n"/>
-      <c r="G32" s="55" t="n"/>
-      <c r="J32" s="54" t="n"/>
-      <c r="K32" s="54" t="n"/>
-      <c r="L32" s="54" t="n"/>
-      <c r="M32" s="57" t="n"/>
-      <c r="W32" s="54" t="n"/>
-      <c r="X32" s="54" t="n"/>
-      <c r="Y32" s="54" t="n"/>
-      <c r="Z32" s="54" t="n"/>
-      <c r="AA32" s="54" t="n"/>
-      <c r="AB32" s="54" t="n"/>
-      <c r="AC32" s="54" t="n"/>
+      <c r="A32" s="38" t="n">
+        <v>45940</v>
+      </c>
+      <c r="B32" s="39" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C32" s="39" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D32" s="40" t="n">
+        <v>20</v>
+      </c>
+      <c r="E32" s="41" t="n">
+        <v>347.5</v>
+      </c>
+      <c r="F32" s="42">
+        <f>D8*E8</f>
+        <v/>
+      </c>
+      <c r="G32" s="39" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H32" s="40" t="n"/>
+      <c r="I32" s="40" t="n"/>
+      <c r="J32" s="43">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K32" s="44">
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/sum(F8:I8), "")</f>
+        <v/>
+      </c>
+      <c r="L32" s="45">
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <v/>
+      </c>
+      <c r="M32" s="45">
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
+        <v/>
+      </c>
+      <c r="N32" s="46">
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
+        <v/>
+      </c>
+      <c r="O32" s="44">
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/sum(F8:I8), "")</f>
+        <v/>
+      </c>
+      <c r="P32" s="45">
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <v/>
+      </c>
+      <c r="Q32" s="45">
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
+        <v/>
+      </c>
+      <c r="R32" s="45">
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
+        <v/>
+      </c>
+      <c r="S32" s="47">
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/sum(F8:I8), "")</f>
+        <v/>
+      </c>
+      <c r="T32" s="48">
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <v/>
+      </c>
+      <c r="U32" s="48">
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
+        <v/>
+      </c>
+      <c r="V32" s="48">
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
+        <v/>
+      </c>
+      <c r="W32" s="49" t="n"/>
+      <c r="X32" s="49" t="n"/>
+      <c r="Y32" s="50" t="n"/>
+      <c r="Z32" s="49" t="n"/>
+      <c r="AA32" s="49" t="n"/>
+      <c r="AB32" s="51" t="n"/>
+      <c r="AC32" s="52" t="n"/>
+      <c r="AD32" s="53" t="n"/>
     </row>
     <row r="33">
       <c r="E33" s="54" t="n"/>
@@ -17240,6 +17274,7 @@
       <c r="J967" s="54" t="n"/>
       <c r="K967" s="54" t="n"/>
       <c r="L967" s="54" t="n"/>
+      <c r="M967" s="57" t="n"/>
       <c r="W967" s="54" t="n"/>
       <c r="X967" s="54" t="n"/>
       <c r="Y967" s="54" t="n"/>
@@ -17255,6 +17290,7 @@
       <c r="J968" s="54" t="n"/>
       <c r="K968" s="54" t="n"/>
       <c r="L968" s="54" t="n"/>
+      <c r="M968" s="57" t="n"/>
       <c r="W968" s="54" t="n"/>
       <c r="X968" s="54" t="n"/>
       <c r="Y968" s="54" t="n"/>
@@ -17487,6 +17523,36 @@
       <c r="AA983" s="54" t="n"/>
       <c r="AB983" s="54" t="n"/>
       <c r="AC983" s="54" t="n"/>
+    </row>
+    <row r="984">
+      <c r="E984" s="54" t="n"/>
+      <c r="F984" s="54" t="n"/>
+      <c r="G984" s="55" t="n"/>
+      <c r="J984" s="54" t="n"/>
+      <c r="K984" s="54" t="n"/>
+      <c r="L984" s="54" t="n"/>
+      <c r="W984" s="54" t="n"/>
+      <c r="X984" s="54" t="n"/>
+      <c r="Y984" s="54" t="n"/>
+      <c r="Z984" s="54" t="n"/>
+      <c r="AA984" s="54" t="n"/>
+      <c r="AB984" s="54" t="n"/>
+      <c r="AC984" s="54" t="n"/>
+    </row>
+    <row r="985">
+      <c r="E985" s="54" t="n"/>
+      <c r="F985" s="54" t="n"/>
+      <c r="G985" s="55" t="n"/>
+      <c r="J985" s="54" t="n"/>
+      <c r="K985" s="54" t="n"/>
+      <c r="L985" s="54" t="n"/>
+      <c r="W985" s="54" t="n"/>
+      <c r="X985" s="54" t="n"/>
+      <c r="Y985" s="54" t="n"/>
+      <c r="Z985" s="54" t="n"/>
+      <c r="AA985" s="54" t="n"/>
+      <c r="AB985" s="54" t="n"/>
+      <c r="AC985" s="54" t="n"/>
     </row>
   </sheetData>
   <autoFilter ref="$A$4:$AO$38"/>

--- a/dumps/Stocks/Rail Vikas Nigam.xlsx
+++ b/dumps/Stocks/Rail Vikas Nigam.xlsx
@@ -749,7 +749,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP985"/>
+  <dimension ref="A1:AP986"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
@@ -1099,7 +1099,7 @@
     </row>
     <row r="5">
       <c r="A5" s="87" t="n">
-        <v>45954</v>
+        <v>46066</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -1112,18 +1112,24 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>333.8</v>
+        <v>308.1</v>
       </c>
       <c r="F5" t="n">
-        <v>10014</v>
+        <v>3102.7</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>CN#252611910666</t>
         </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3.1122</v>
+      </c>
+      <c r="I5" t="n">
+        <v>18.5912</v>
       </c>
       <c r="J5">
         <f>Index!$C$2</f>
@@ -1132,7 +1138,7 @@
     </row>
     <row r="6">
       <c r="A6" s="87" t="n">
-        <v>45953</v>
+        <v>45954</v>
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
@@ -1145,13 +1151,13 @@
         </is>
       </c>
       <c r="D6" s="0" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>333.04</v>
+        <v>333.8</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>6660.8</v>
+        <v>10014</v>
       </c>
       <c r="G6" s="0" t="inlineStr">
         <is>
@@ -1165,7 +1171,7 @@
     </row>
     <row r="7">
       <c r="A7" s="87" t="n">
-        <v>46062</v>
+        <v>45953</v>
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
@@ -1178,21 +1184,18 @@
         </is>
       </c>
       <c r="D7" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>315.4</v>
+        <v>333.04</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>3169.8</v>
+        <v>6660.8</v>
       </c>
       <c r="G7" s="0" t="inlineStr">
         <is>
-          <t>CN#252611665409</t>
+          <t>~</t>
         </is>
-      </c>
-      <c r="I7" s="0" t="n">
-        <v>15.8</v>
       </c>
       <c r="J7" s="0">
         <f>Index!$C$2</f>
@@ -1201,7 +1204,7 @@
     </row>
     <row r="8">
       <c r="A8" s="87" t="n">
-        <v>46063</v>
+        <v>46062</v>
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
@@ -1217,18 +1220,18 @@
         <v>10</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>317.85</v>
+        <v>315.4</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>3194.4</v>
+        <v>3169.8</v>
       </c>
       <c r="G8" s="0" t="inlineStr">
         <is>
-          <t>CN#252611730667</t>
+          <t>CN#252611665409</t>
         </is>
       </c>
       <c r="I8" s="0" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="J8" s="0">
         <f>Index!$C$2</f>
@@ -1237,7 +1240,7 @@
     </row>
     <row r="9">
       <c r="A9" s="87" t="n">
-        <v>46059</v>
+        <v>46063</v>
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
@@ -1253,18 +1256,18 @@
         <v>10</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>312.2</v>
+        <v>317.85</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>3137.6</v>
+        <v>3194.4</v>
       </c>
       <c r="G9" s="0" t="inlineStr">
         <is>
-          <t>CN#252611604850</t>
+          <t>CN#252611730667</t>
         </is>
       </c>
       <c r="I9" s="0" t="n">
-        <v>15.6</v>
+        <v>15.9</v>
       </c>
       <c r="J9" s="0">
         <f>Index!$C$2</f>
@@ -1273,7 +1276,7 @@
     </row>
     <row r="10">
       <c r="A10" s="87" t="n">
-        <v>46057</v>
+        <v>46059</v>
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
@@ -1289,18 +1292,18 @@
         <v>10</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>321.15</v>
+        <v>312.2</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>3227.6</v>
+        <v>3137.6</v>
       </c>
       <c r="G10" s="0" t="inlineStr">
         <is>
-          <t>CN#252611485581</t>
+          <t>CN#252611604850</t>
         </is>
       </c>
       <c r="I10" s="0" t="n">
-        <v>16.1</v>
+        <v>15.6</v>
       </c>
       <c r="J10" s="0">
         <f>Index!$C$2</f>
@@ -1309,7 +1312,7 @@
     </row>
     <row r="11">
       <c r="A11" s="87" t="n">
-        <v>46049</v>
+        <v>46057</v>
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
@@ -1325,18 +1328,18 @@
         <v>10</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>326.5</v>
+        <v>321.15</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>3281.3</v>
+        <v>3227.6</v>
       </c>
       <c r="G11" s="0" t="inlineStr">
         <is>
-          <t>CN#252611030591</t>
+          <t>CN#252611485581</t>
         </is>
       </c>
       <c r="I11" s="0" t="n">
-        <v>16.3</v>
+        <v>16.1</v>
       </c>
       <c r="J11" s="0">
         <f>Index!$C$2</f>
@@ -1345,7 +1348,7 @@
     </row>
     <row r="12">
       <c r="A12" s="87" t="n">
-        <v>46034</v>
+        <v>46049</v>
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
@@ -1361,18 +1364,18 @@
         <v>10</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>327.5</v>
+        <v>326.5</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>3291.4</v>
+        <v>3281.3</v>
       </c>
       <c r="G12" s="0" t="inlineStr">
         <is>
-          <t>CN#252610469431</t>
+          <t>CN#252611030591</t>
         </is>
       </c>
       <c r="I12" s="0" t="n">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="J12" s="0">
         <f>Index!$C$2</f>
@@ -1381,7 +1384,7 @@
     </row>
     <row r="13">
       <c r="A13" s="87" t="n">
-        <v>46009</v>
+        <v>46034</v>
       </c>
       <c r="B13" s="0" t="inlineStr">
         <is>
@@ -1397,18 +1400,18 @@
         <v>10</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>303.35</v>
+        <v>327.5</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>3048.7</v>
+        <v>3291.4</v>
       </c>
       <c r="G13" s="0" t="inlineStr">
         <is>
-          <t>CN#252609527272</t>
+          <t>CN#252610469431</t>
         </is>
       </c>
       <c r="I13" s="0" t="n">
-        <v>15.2</v>
+        <v>16.4</v>
       </c>
       <c r="J13" s="0">
         <f>Index!$C$2</f>
@@ -1417,11 +1420,11 @@
     </row>
     <row r="14">
       <c r="A14" s="87" t="n">
-        <v>46008</v>
+        <v>46009</v>
       </c>
       <c r="B14" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C14" s="0" t="inlineStr">
@@ -1433,18 +1436,18 @@
         <v>10</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>307.8</v>
+        <v>303.35</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>3093.4</v>
+        <v>3048.7</v>
       </c>
       <c r="G14" s="0" t="inlineStr">
         <is>
-          <t>CN#252609476500</t>
+          <t>CN#252609527272</t>
         </is>
       </c>
       <c r="I14" s="0" t="n">
-        <v>15.4</v>
+        <v>15.2</v>
       </c>
       <c r="J14" s="0">
         <f>Index!$C$2</f>
@@ -1453,7 +1456,7 @@
     </row>
     <row r="15">
       <c r="A15" s="87" t="n">
-        <v>46007</v>
+        <v>46008</v>
       </c>
       <c r="B15" s="0" t="inlineStr">
         <is>
@@ -1469,18 +1472,18 @@
         <v>10</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>310.25</v>
+        <v>307.8</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>3118</v>
+        <v>3093.4</v>
       </c>
       <c r="G15" s="0" t="inlineStr">
         <is>
-          <t>CN#252609425003</t>
+          <t>CN#252609476500</t>
         </is>
       </c>
       <c r="I15" s="0" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="J15" s="0">
         <f>Index!$C$2</f>
@@ -1489,11 +1492,11 @@
     </row>
     <row r="16">
       <c r="A16" s="87" t="n">
-        <v>46000</v>
+        <v>46007</v>
       </c>
       <c r="B16" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C16" s="0" t="inlineStr">
@@ -1505,18 +1508,18 @@
         <v>10</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>312.35</v>
+        <v>310.25</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>3139.1</v>
+        <v>3118</v>
       </c>
       <c r="G16" s="0" t="inlineStr">
         <is>
-          <t>CN#252609157599</t>
+          <t>CN#252609425003</t>
         </is>
       </c>
       <c r="I16" s="0" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="J16" s="0">
         <f>Index!$C$2</f>
@@ -1525,7 +1528,7 @@
     </row>
     <row r="17">
       <c r="A17" s="87" t="n">
-        <v>45993</v>
+        <v>46000</v>
       </c>
       <c r="B17" s="0" t="inlineStr">
         <is>
@@ -1541,18 +1544,18 @@
         <v>10</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>319.35</v>
+        <v>312.35</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>3209.5</v>
+        <v>3139.1</v>
       </c>
       <c r="G17" s="0" t="inlineStr">
         <is>
-          <t>CN#252608877522</t>
+          <t>CN#252609157599</t>
         </is>
       </c>
       <c r="I17" s="0" t="n">
-        <v>16</v>
+        <v>15.6</v>
       </c>
       <c r="J17" s="0">
         <f>Index!$C$2</f>
@@ -1561,7 +1564,7 @@
     </row>
     <row r="18">
       <c r="A18" s="87" t="n">
-        <v>45982</v>
+        <v>45993</v>
       </c>
       <c r="B18" s="0" t="inlineStr">
         <is>
@@ -1574,21 +1577,21 @@
         </is>
       </c>
       <c r="D18" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>315.7</v>
+        <v>319.35</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>6345.6</v>
+        <v>3209.5</v>
       </c>
       <c r="G18" s="0" t="inlineStr">
         <is>
-          <t>CN#252608495287</t>
+          <t>CN#252608877522</t>
         </is>
       </c>
       <c r="I18" s="0" t="n">
-        <v>31.6</v>
+        <v>16</v>
       </c>
       <c r="J18" s="0">
         <f>Index!$C$2</f>
@@ -1597,7 +1600,7 @@
     </row>
     <row r="19">
       <c r="A19" s="87" t="n">
-        <v>45978</v>
+        <v>45982</v>
       </c>
       <c r="B19" s="0" t="inlineStr">
         <is>
@@ -1613,18 +1616,18 @@
         <v>20</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>331.55</v>
+        <v>315.7</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>6664.2</v>
+        <v>6345.6</v>
       </c>
       <c r="G19" s="0" t="inlineStr">
         <is>
-          <t>CN#252608260909</t>
+          <t>CN#252608495287</t>
         </is>
       </c>
       <c r="I19" s="0" t="n">
-        <v>33.2</v>
+        <v>31.6</v>
       </c>
       <c r="J19" s="0">
         <f>Index!$C$2</f>
@@ -1633,7 +1636,7 @@
     </row>
     <row r="20">
       <c r="A20" s="87" t="n">
-        <v>45975</v>
+        <v>45978</v>
       </c>
       <c r="B20" s="0" t="inlineStr">
         <is>
@@ -1649,18 +1652,18 @@
         <v>20</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>316.35</v>
+        <v>331.55</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>6358.6</v>
+        <v>6664.2</v>
       </c>
       <c r="G20" s="0" t="inlineStr">
         <is>
-          <t>CN#252608199734</t>
+          <t>CN#252608260909</t>
         </is>
       </c>
       <c r="I20" s="0" t="n">
-        <v>31.6</v>
+        <v>33.2</v>
       </c>
       <c r="J20" s="0">
         <f>Index!$C$2</f>
@@ -1669,7 +1672,7 @@
     </row>
     <row r="21">
       <c r="A21" s="87" t="n">
-        <v>45974</v>
+        <v>45975</v>
       </c>
       <c r="B21" s="0" t="inlineStr">
         <is>
@@ -1682,21 +1685,21 @@
         </is>
       </c>
       <c r="D21" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>317.75</v>
+        <v>316.35</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>3193.4</v>
+        <v>6358.6</v>
       </c>
       <c r="G21" s="0" t="inlineStr">
         <is>
-          <t>CN#252608142538</t>
+          <t>CN#252608199734</t>
         </is>
       </c>
       <c r="I21" s="0" t="n">
-        <v>15.9</v>
+        <v>31.6</v>
       </c>
       <c r="J21" s="0">
         <f>Index!$C$2</f>
@@ -1705,7 +1708,7 @@
     </row>
     <row r="22">
       <c r="A22" s="87" t="n">
-        <v>45972</v>
+        <v>45974</v>
       </c>
       <c r="B22" s="0" t="inlineStr">
         <is>
@@ -1721,14 +1724,14 @@
         <v>10</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>317.35</v>
+        <v>317.75</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>3189.4</v>
+        <v>3193.4</v>
       </c>
       <c r="G22" s="0" t="inlineStr">
         <is>
-          <t>CN#252608021091</t>
+          <t>CN#252608142538</t>
         </is>
       </c>
       <c r="I22" s="0" t="n">
@@ -1741,7 +1744,7 @@
     </row>
     <row r="23">
       <c r="A23" s="87" t="n">
-        <v>45971</v>
+        <v>45972</v>
       </c>
       <c r="B23" s="0" t="inlineStr">
         <is>
@@ -1754,21 +1757,21 @@
         </is>
       </c>
       <c r="D23" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>318.15</v>
+        <v>317.35</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>6394.8</v>
+        <v>3189.4</v>
       </c>
       <c r="G23" s="0" t="inlineStr">
         <is>
-          <t>CN#252607962278</t>
+          <t>CN#252608021091</t>
         </is>
       </c>
       <c r="I23" s="0" t="n">
-        <v>31.8</v>
+        <v>15.9</v>
       </c>
       <c r="J23" s="0">
         <f>Index!$C$2</f>
@@ -1777,7 +1780,7 @@
     </row>
     <row r="24">
       <c r="A24" s="87" t="n">
-        <v>45968</v>
+        <v>45971</v>
       </c>
       <c r="B24" s="0" t="inlineStr">
         <is>
@@ -1793,18 +1796,18 @@
         <v>20</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>315.5</v>
+        <v>318.15</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>6341.6</v>
+        <v>6394.8</v>
       </c>
       <c r="G24" s="0" t="inlineStr">
         <is>
-          <t>CN#252607899666</t>
+          <t>CN#252607962278</t>
         </is>
       </c>
       <c r="I24" s="0" t="n">
-        <v>31.6</v>
+        <v>31.8</v>
       </c>
       <c r="J24" s="0">
         <f>Index!$C$2</f>
@@ -1813,7 +1816,7 @@
     </row>
     <row r="25">
       <c r="A25" s="87" t="n">
-        <v>45961</v>
+        <v>45968</v>
       </c>
       <c r="B25" s="0" t="inlineStr">
         <is>
@@ -1829,18 +1832,18 @@
         <v>20</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>329.9</v>
+        <v>315.5</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>6631</v>
+        <v>6341.6</v>
       </c>
       <c r="G25" s="0" t="inlineStr">
         <is>
-          <t>CN#252607606298</t>
+          <t>CN#252607899666</t>
         </is>
       </c>
       <c r="I25" s="0" t="n">
-        <v>33</v>
+        <v>31.6</v>
       </c>
       <c r="J25" s="0">
         <f>Index!$C$2</f>
@@ -1849,7 +1852,7 @@
     </row>
     <row r="26">
       <c r="A26" s="87" t="n">
-        <v>45959</v>
+        <v>45961</v>
       </c>
       <c r="B26" s="0" t="inlineStr">
         <is>
@@ -1862,21 +1865,21 @@
         </is>
       </c>
       <c r="D26" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>328.3</v>
+        <v>329.9</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>9898.200000000001</v>
+        <v>6631</v>
       </c>
       <c r="G26" s="0" t="inlineStr">
         <is>
-          <t>CN#252607497001</t>
+          <t>CN#252607606298</t>
         </is>
       </c>
       <c r="I26" s="0" t="n">
-        <v>49.2</v>
+        <v>33</v>
       </c>
       <c r="J26" s="0">
         <f>Index!$C$2</f>
@@ -1885,7 +1888,7 @@
     </row>
     <row r="27">
       <c r="A27" s="87" t="n">
-        <v>45957</v>
+        <v>45959</v>
       </c>
       <c r="B27" s="0" t="inlineStr">
         <is>
@@ -1898,21 +1901,21 @@
         </is>
       </c>
       <c r="D27" s="0" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>329.8</v>
+        <v>328.3</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>3314.5</v>
+        <v>9898.200000000001</v>
       </c>
       <c r="G27" s="0" t="inlineStr">
         <is>
-          <t>CN#252607382790</t>
+          <t>CN#252607497001</t>
         </is>
       </c>
       <c r="I27" s="0" t="n">
-        <v>16.5</v>
+        <v>49.2</v>
       </c>
       <c r="J27" s="0">
         <f>Index!$C$2</f>
@@ -1921,7 +1924,7 @@
     </row>
     <row r="28">
       <c r="A28" s="87" t="n">
-        <v>45967</v>
+        <v>45957</v>
       </c>
       <c r="B28" s="0" t="inlineStr">
         <is>
@@ -1934,122 +1937,66 @@
         </is>
       </c>
       <c r="D28" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>329.8</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>3314.5</v>
+      </c>
+      <c r="G28" s="0" t="inlineStr">
+        <is>
+          <t>CN#252607382790</t>
+        </is>
+      </c>
+      <c r="I28" s="0" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="J28" s="0">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="87" t="n">
+        <v>45967</v>
+      </c>
+      <c r="B29" s="0" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C29" s="0" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D29" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="E28" s="0" t="n">
+      <c r="E29" s="0" t="n">
         <v>320.3</v>
       </c>
-      <c r="F28" s="0" t="n">
+      <c r="F29" s="0" t="n">
         <v>6438</v>
       </c>
-      <c r="G28" s="0" t="inlineStr">
+      <c r="G29" s="0" t="inlineStr">
         <is>
           <t>CN#252607785263</t>
         </is>
       </c>
-      <c r="I28" s="0" t="n">
+      <c r="I29" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="J28" s="0">
+      <c r="J29" s="0">
         <f>Index!$C$2</f>
         <v/>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="38" t="n">
-        <v>45950</v>
-      </c>
-      <c r="B29" s="39" t="inlineStr">
-        <is>
-          <t>NSE</t>
-        </is>
-      </c>
-      <c r="C29" s="39" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="D29" s="40" t="n">
-        <v>40</v>
-      </c>
-      <c r="E29" s="41" t="n">
-        <v>333.04</v>
-      </c>
-      <c r="F29" s="42">
-        <f>D5*E5</f>
-        <v/>
-      </c>
-      <c r="G29" s="39" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
-      <c r="H29" s="40" t="n"/>
-      <c r="I29" s="40" t="n"/>
-      <c r="J29" s="43">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K29" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="L29" s="45">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="M29" s="45">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
-        <v/>
-      </c>
-      <c r="N29" s="46">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
-        <v/>
-      </c>
-      <c r="O29" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="P29" s="45">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="Q29" s="45">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
-        <v/>
-      </c>
-      <c r="R29" s="45">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="S29" s="47">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="T29" s="48">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="U29" s="48">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
-        <v/>
-      </c>
-      <c r="V29" s="48">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="W29" s="49" t="n"/>
-      <c r="X29" s="49" t="n"/>
-      <c r="Y29" s="50" t="n"/>
-      <c r="Z29" s="49" t="n"/>
-      <c r="AA29" s="49" t="n"/>
-      <c r="AB29" s="51" t="n"/>
-      <c r="AC29" s="52" t="n"/>
-      <c r="AD29" s="53" t="n"/>
-    </row>
     <row r="30">
       <c r="A30" s="38" t="n">
-        <v>45947</v>
+        <v>45950</v>
       </c>
       <c r="B30" s="39" t="inlineStr">
         <is>
@@ -2062,13 +2009,13 @@
         </is>
       </c>
       <c r="D30" s="40" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E30" s="41" t="n">
-        <v>335.92</v>
+        <v>333.04</v>
       </c>
       <c r="F30" s="42">
-        <f>D6*E6</f>
+        <f>D5*E5</f>
         <v/>
       </c>
       <c r="G30" s="39" t="inlineStr">
@@ -2083,51 +2030,51 @@
         <v/>
       </c>
       <c r="K30" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="L30" s="45">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="M30" s="45">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
         <v/>
       </c>
       <c r="N30" s="46">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
         <v/>
       </c>
       <c r="O30" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="P30" s="45">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="Q30" s="45">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
         <v/>
       </c>
       <c r="R30" s="45">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="S30" s="47">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="T30" s="48">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="U30" s="48">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
         <v/>
       </c>
       <c r="V30" s="48">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="W30" s="49" t="n"/>
@@ -2141,7 +2088,7 @@
     </row>
     <row r="31">
       <c r="A31" s="38" t="n">
-        <v>45943</v>
+        <v>45947</v>
       </c>
       <c r="B31" s="39" t="inlineStr">
         <is>
@@ -2154,13 +2101,13 @@
         </is>
       </c>
       <c r="D31" s="40" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E31" s="41" t="n">
-        <v>341.5</v>
+        <v>335.92</v>
       </c>
       <c r="F31" s="42">
-        <f>D7*E7</f>
+        <f>D6*E6</f>
         <v/>
       </c>
       <c r="G31" s="39" t="inlineStr">
@@ -2175,51 +2122,51 @@
         <v/>
       </c>
       <c r="K31" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="L31" s="45">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="M31" s="45">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
         <v/>
       </c>
       <c r="N31" s="46">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
         <v/>
       </c>
       <c r="O31" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="P31" s="45">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="Q31" s="45">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
         <v/>
       </c>
       <c r="R31" s="45">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
         <v/>
       </c>
       <c r="S31" s="47">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="T31" s="48">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="U31" s="48">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
         <v/>
       </c>
       <c r="V31" s="48">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
         <v/>
       </c>
       <c r="W31" s="49" t="n"/>
@@ -2233,7 +2180,7 @@
     </row>
     <row r="32">
       <c r="A32" s="38" t="n">
-        <v>45940</v>
+        <v>45943</v>
       </c>
       <c r="B32" s="39" t="inlineStr">
         <is>
@@ -2246,13 +2193,13 @@
         </is>
       </c>
       <c r="D32" s="40" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E32" s="41" t="n">
-        <v>347.5</v>
+        <v>341.5</v>
       </c>
       <c r="F32" s="42">
-        <f>D8*E8</f>
+        <f>D7*E7</f>
         <v/>
       </c>
       <c r="G32" s="39" t="inlineStr">
@@ -2267,51 +2214,51 @@
         <v/>
       </c>
       <c r="K32" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="L32" s="45">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="M32" s="45">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
         <v/>
       </c>
       <c r="N32" s="46">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
         <v/>
       </c>
       <c r="O32" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="P32" s="45">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="Q32" s="45">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
         <v/>
       </c>
       <c r="R32" s="45">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="S32" s="47">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="T32" s="48">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="U32" s="48">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
         <v/>
       </c>
       <c r="V32" s="48">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="W32" s="49" t="n"/>
@@ -2324,20 +2271,96 @@
       <c r="AD32" s="53" t="n"/>
     </row>
     <row r="33">
-      <c r="E33" s="54" t="n"/>
-      <c r="F33" s="54" t="n"/>
-      <c r="G33" s="55" t="n"/>
-      <c r="J33" s="54" t="n"/>
-      <c r="K33" s="54" t="n"/>
-      <c r="L33" s="54" t="n"/>
-      <c r="M33" s="57" t="n"/>
-      <c r="W33" s="54" t="n"/>
-      <c r="X33" s="54" t="n"/>
-      <c r="Y33" s="54" t="n"/>
-      <c r="Z33" s="54" t="n"/>
-      <c r="AA33" s="54" t="n"/>
-      <c r="AB33" s="54" t="n"/>
-      <c r="AC33" s="54" t="n"/>
+      <c r="A33" s="38" t="n">
+        <v>45940</v>
+      </c>
+      <c r="B33" s="39" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C33" s="39" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D33" s="40" t="n">
+        <v>20</v>
+      </c>
+      <c r="E33" s="41" t="n">
+        <v>347.5</v>
+      </c>
+      <c r="F33" s="42">
+        <f>D8*E8</f>
+        <v/>
+      </c>
+      <c r="G33" s="39" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H33" s="40" t="n"/>
+      <c r="I33" s="40" t="n"/>
+      <c r="J33" s="43">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K33" s="44">
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/sum(F8:I8), "")</f>
+        <v/>
+      </c>
+      <c r="L33" s="45">
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <v/>
+      </c>
+      <c r="M33" s="45">
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
+        <v/>
+      </c>
+      <c r="N33" s="46">
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
+        <v/>
+      </c>
+      <c r="O33" s="44">
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/sum(F8:I8), "")</f>
+        <v/>
+      </c>
+      <c r="P33" s="45">
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <v/>
+      </c>
+      <c r="Q33" s="45">
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
+        <v/>
+      </c>
+      <c r="R33" s="45">
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
+        <v/>
+      </c>
+      <c r="S33" s="47">
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/sum(F8:I8), "")</f>
+        <v/>
+      </c>
+      <c r="T33" s="48">
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <v/>
+      </c>
+      <c r="U33" s="48">
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
+        <v/>
+      </c>
+      <c r="V33" s="48">
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
+        <v/>
+      </c>
+      <c r="W33" s="49" t="n"/>
+      <c r="X33" s="49" t="n"/>
+      <c r="Y33" s="50" t="n"/>
+      <c r="Z33" s="49" t="n"/>
+      <c r="AA33" s="49" t="n"/>
+      <c r="AB33" s="51" t="n"/>
+      <c r="AC33" s="52" t="n"/>
+      <c r="AD33" s="53" t="n"/>
     </row>
     <row r="34">
       <c r="E34" s="54" t="n"/>
@@ -17306,6 +17329,7 @@
       <c r="J969" s="54" t="n"/>
       <c r="K969" s="54" t="n"/>
       <c r="L969" s="54" t="n"/>
+      <c r="M969" s="57" t="n"/>
       <c r="W969" s="54" t="n"/>
       <c r="X969" s="54" t="n"/>
       <c r="Y969" s="54" t="n"/>
@@ -17553,6 +17577,21 @@
       <c r="AA985" s="54" t="n"/>
       <c r="AB985" s="54" t="n"/>
       <c r="AC985" s="54" t="n"/>
+    </row>
+    <row r="986">
+      <c r="E986" s="54" t="n"/>
+      <c r="F986" s="54" t="n"/>
+      <c r="G986" s="55" t="n"/>
+      <c r="J986" s="54" t="n"/>
+      <c r="K986" s="54" t="n"/>
+      <c r="L986" s="54" t="n"/>
+      <c r="W986" s="54" t="n"/>
+      <c r="X986" s="54" t="n"/>
+      <c r="Y986" s="54" t="n"/>
+      <c r="Z986" s="54" t="n"/>
+      <c r="AA986" s="54" t="n"/>
+      <c r="AB986" s="54" t="n"/>
+      <c r="AC986" s="54" t="n"/>
     </row>
   </sheetData>
   <autoFilter ref="$A$4:$AO$38"/>

--- a/dumps/Stocks/Rail Vikas Nigam.xlsx
+++ b/dumps/Stocks/Rail Vikas Nigam.xlsx
@@ -749,7 +749,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP986"/>
+  <dimension ref="A1:AP987"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
@@ -1099,11 +1099,11 @@
     </row>
     <row r="5">
       <c r="A5" s="87" t="n">
-        <v>46066</v>
+        <v>46069</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1115,21 +1115,21 @@
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>308.1</v>
+        <v>311.1</v>
       </c>
       <c r="F5" t="n">
-        <v>3102.7</v>
+        <v>3133</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>CN#252611910666</t>
+          <t>CN#252611972212</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3.1122</v>
+        <v>3.13</v>
       </c>
       <c r="I5" t="n">
-        <v>18.5912</v>
+        <v>18.8702</v>
       </c>
       <c r="J5">
         <f>Index!$C$2</f>
@@ -1138,7 +1138,7 @@
     </row>
     <row r="6">
       <c r="A6" s="87" t="n">
-        <v>45954</v>
+        <v>46066</v>
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
@@ -1151,18 +1151,24 @@
         </is>
       </c>
       <c r="D6" s="0" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>333.8</v>
+        <v>308.1</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>10014</v>
+        <v>3102.7</v>
       </c>
       <c r="G6" s="0" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>CN#252611910666</t>
         </is>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>3.1122</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>18.5912</v>
       </c>
       <c r="J6" s="0">
         <f>Index!$C$2</f>
@@ -1171,7 +1177,7 @@
     </row>
     <row r="7">
       <c r="A7" s="87" t="n">
-        <v>45953</v>
+        <v>45954</v>
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
@@ -1184,13 +1190,13 @@
         </is>
       </c>
       <c r="D7" s="0" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>333.04</v>
+        <v>333.8</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>6660.8</v>
+        <v>10014</v>
       </c>
       <c r="G7" s="0" t="inlineStr">
         <is>
@@ -1204,7 +1210,7 @@
     </row>
     <row r="8">
       <c r="A8" s="87" t="n">
-        <v>46062</v>
+        <v>45953</v>
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
@@ -1217,21 +1223,18 @@
         </is>
       </c>
       <c r="D8" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>315.4</v>
+        <v>333.04</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>3169.8</v>
+        <v>6660.8</v>
       </c>
       <c r="G8" s="0" t="inlineStr">
         <is>
-          <t>CN#252611665409</t>
+          <t>~</t>
         </is>
-      </c>
-      <c r="I8" s="0" t="n">
-        <v>15.8</v>
       </c>
       <c r="J8" s="0">
         <f>Index!$C$2</f>
@@ -1240,7 +1243,7 @@
     </row>
     <row r="9">
       <c r="A9" s="87" t="n">
-        <v>46063</v>
+        <v>46062</v>
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
@@ -1256,18 +1259,18 @@
         <v>10</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>317.85</v>
+        <v>315.4</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>3194.4</v>
+        <v>3169.8</v>
       </c>
       <c r="G9" s="0" t="inlineStr">
         <is>
-          <t>CN#252611730667</t>
+          <t>CN#252611665409</t>
         </is>
       </c>
       <c r="I9" s="0" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="J9" s="0">
         <f>Index!$C$2</f>
@@ -1276,7 +1279,7 @@
     </row>
     <row r="10">
       <c r="A10" s="87" t="n">
-        <v>46059</v>
+        <v>46063</v>
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
@@ -1292,18 +1295,18 @@
         <v>10</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>312.2</v>
+        <v>317.85</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>3137.6</v>
+        <v>3194.4</v>
       </c>
       <c r="G10" s="0" t="inlineStr">
         <is>
-          <t>CN#252611604850</t>
+          <t>CN#252611730667</t>
         </is>
       </c>
       <c r="I10" s="0" t="n">
-        <v>15.6</v>
+        <v>15.9</v>
       </c>
       <c r="J10" s="0">
         <f>Index!$C$2</f>
@@ -1312,7 +1315,7 @@
     </row>
     <row r="11">
       <c r="A11" s="87" t="n">
-        <v>46057</v>
+        <v>46059</v>
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
@@ -1328,18 +1331,18 @@
         <v>10</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>321.15</v>
+        <v>312.2</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>3227.6</v>
+        <v>3137.6</v>
       </c>
       <c r="G11" s="0" t="inlineStr">
         <is>
-          <t>CN#252611485581</t>
+          <t>CN#252611604850</t>
         </is>
       </c>
       <c r="I11" s="0" t="n">
-        <v>16.1</v>
+        <v>15.6</v>
       </c>
       <c r="J11" s="0">
         <f>Index!$C$2</f>
@@ -1348,7 +1351,7 @@
     </row>
     <row r="12">
       <c r="A12" s="87" t="n">
-        <v>46049</v>
+        <v>46057</v>
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
@@ -1364,18 +1367,18 @@
         <v>10</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>326.5</v>
+        <v>321.15</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>3281.3</v>
+        <v>3227.6</v>
       </c>
       <c r="G12" s="0" t="inlineStr">
         <is>
-          <t>CN#252611030591</t>
+          <t>CN#252611485581</t>
         </is>
       </c>
       <c r="I12" s="0" t="n">
-        <v>16.3</v>
+        <v>16.1</v>
       </c>
       <c r="J12" s="0">
         <f>Index!$C$2</f>
@@ -1384,7 +1387,7 @@
     </row>
     <row r="13">
       <c r="A13" s="87" t="n">
-        <v>46034</v>
+        <v>46049</v>
       </c>
       <c r="B13" s="0" t="inlineStr">
         <is>
@@ -1400,18 +1403,18 @@
         <v>10</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>327.5</v>
+        <v>326.5</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>3291.4</v>
+        <v>3281.3</v>
       </c>
       <c r="G13" s="0" t="inlineStr">
         <is>
-          <t>CN#252610469431</t>
+          <t>CN#252611030591</t>
         </is>
       </c>
       <c r="I13" s="0" t="n">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="J13" s="0">
         <f>Index!$C$2</f>
@@ -1420,7 +1423,7 @@
     </row>
     <row r="14">
       <c r="A14" s="87" t="n">
-        <v>46009</v>
+        <v>46034</v>
       </c>
       <c r="B14" s="0" t="inlineStr">
         <is>
@@ -1436,18 +1439,18 @@
         <v>10</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>303.35</v>
+        <v>327.5</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>3048.7</v>
+        <v>3291.4</v>
       </c>
       <c r="G14" s="0" t="inlineStr">
         <is>
-          <t>CN#252609527272</t>
+          <t>CN#252610469431</t>
         </is>
       </c>
       <c r="I14" s="0" t="n">
-        <v>15.2</v>
+        <v>16.4</v>
       </c>
       <c r="J14" s="0">
         <f>Index!$C$2</f>
@@ -1456,11 +1459,11 @@
     </row>
     <row r="15">
       <c r="A15" s="87" t="n">
-        <v>46008</v>
+        <v>46009</v>
       </c>
       <c r="B15" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C15" s="0" t="inlineStr">
@@ -1472,18 +1475,18 @@
         <v>10</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>307.8</v>
+        <v>303.35</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>3093.4</v>
+        <v>3048.7</v>
       </c>
       <c r="G15" s="0" t="inlineStr">
         <is>
-          <t>CN#252609476500</t>
+          <t>CN#252609527272</t>
         </is>
       </c>
       <c r="I15" s="0" t="n">
-        <v>15.4</v>
+        <v>15.2</v>
       </c>
       <c r="J15" s="0">
         <f>Index!$C$2</f>
@@ -1492,7 +1495,7 @@
     </row>
     <row r="16">
       <c r="A16" s="87" t="n">
-        <v>46007</v>
+        <v>46008</v>
       </c>
       <c r="B16" s="0" t="inlineStr">
         <is>
@@ -1508,18 +1511,18 @@
         <v>10</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>310.25</v>
+        <v>307.8</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>3118</v>
+        <v>3093.4</v>
       </c>
       <c r="G16" s="0" t="inlineStr">
         <is>
-          <t>CN#252609425003</t>
+          <t>CN#252609476500</t>
         </is>
       </c>
       <c r="I16" s="0" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="J16" s="0">
         <f>Index!$C$2</f>
@@ -1528,11 +1531,11 @@
     </row>
     <row r="17">
       <c r="A17" s="87" t="n">
-        <v>46000</v>
+        <v>46007</v>
       </c>
       <c r="B17" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C17" s="0" t="inlineStr">
@@ -1544,18 +1547,18 @@
         <v>10</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>312.35</v>
+        <v>310.25</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>3139.1</v>
+        <v>3118</v>
       </c>
       <c r="G17" s="0" t="inlineStr">
         <is>
-          <t>CN#252609157599</t>
+          <t>CN#252609425003</t>
         </is>
       </c>
       <c r="I17" s="0" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="J17" s="0">
         <f>Index!$C$2</f>
@@ -1564,7 +1567,7 @@
     </row>
     <row r="18">
       <c r="A18" s="87" t="n">
-        <v>45993</v>
+        <v>46000</v>
       </c>
       <c r="B18" s="0" t="inlineStr">
         <is>
@@ -1580,18 +1583,18 @@
         <v>10</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>319.35</v>
+        <v>312.35</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>3209.5</v>
+        <v>3139.1</v>
       </c>
       <c r="G18" s="0" t="inlineStr">
         <is>
-          <t>CN#252608877522</t>
+          <t>CN#252609157599</t>
         </is>
       </c>
       <c r="I18" s="0" t="n">
-        <v>16</v>
+        <v>15.6</v>
       </c>
       <c r="J18" s="0">
         <f>Index!$C$2</f>
@@ -1600,7 +1603,7 @@
     </row>
     <row r="19">
       <c r="A19" s="87" t="n">
-        <v>45982</v>
+        <v>45993</v>
       </c>
       <c r="B19" s="0" t="inlineStr">
         <is>
@@ -1613,21 +1616,21 @@
         </is>
       </c>
       <c r="D19" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>315.7</v>
+        <v>319.35</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>6345.6</v>
+        <v>3209.5</v>
       </c>
       <c r="G19" s="0" t="inlineStr">
         <is>
-          <t>CN#252608495287</t>
+          <t>CN#252608877522</t>
         </is>
       </c>
       <c r="I19" s="0" t="n">
-        <v>31.6</v>
+        <v>16</v>
       </c>
       <c r="J19" s="0">
         <f>Index!$C$2</f>
@@ -1636,7 +1639,7 @@
     </row>
     <row r="20">
       <c r="A20" s="87" t="n">
-        <v>45978</v>
+        <v>45982</v>
       </c>
       <c r="B20" s="0" t="inlineStr">
         <is>
@@ -1652,18 +1655,18 @@
         <v>20</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>331.55</v>
+        <v>315.7</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>6664.2</v>
+        <v>6345.6</v>
       </c>
       <c r="G20" s="0" t="inlineStr">
         <is>
-          <t>CN#252608260909</t>
+          <t>CN#252608495287</t>
         </is>
       </c>
       <c r="I20" s="0" t="n">
-        <v>33.2</v>
+        <v>31.6</v>
       </c>
       <c r="J20" s="0">
         <f>Index!$C$2</f>
@@ -1672,7 +1675,7 @@
     </row>
     <row r="21">
       <c r="A21" s="87" t="n">
-        <v>45975</v>
+        <v>45978</v>
       </c>
       <c r="B21" s="0" t="inlineStr">
         <is>
@@ -1688,18 +1691,18 @@
         <v>20</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>316.35</v>
+        <v>331.55</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>6358.6</v>
+        <v>6664.2</v>
       </c>
       <c r="G21" s="0" t="inlineStr">
         <is>
-          <t>CN#252608199734</t>
+          <t>CN#252608260909</t>
         </is>
       </c>
       <c r="I21" s="0" t="n">
-        <v>31.6</v>
+        <v>33.2</v>
       </c>
       <c r="J21" s="0">
         <f>Index!$C$2</f>
@@ -1708,7 +1711,7 @@
     </row>
     <row r="22">
       <c r="A22" s="87" t="n">
-        <v>45974</v>
+        <v>45975</v>
       </c>
       <c r="B22" s="0" t="inlineStr">
         <is>
@@ -1721,21 +1724,21 @@
         </is>
       </c>
       <c r="D22" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>317.75</v>
+        <v>316.35</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>3193.4</v>
+        <v>6358.6</v>
       </c>
       <c r="G22" s="0" t="inlineStr">
         <is>
-          <t>CN#252608142538</t>
+          <t>CN#252608199734</t>
         </is>
       </c>
       <c r="I22" s="0" t="n">
-        <v>15.9</v>
+        <v>31.6</v>
       </c>
       <c r="J22" s="0">
         <f>Index!$C$2</f>
@@ -1744,7 +1747,7 @@
     </row>
     <row r="23">
       <c r="A23" s="87" t="n">
-        <v>45972</v>
+        <v>45974</v>
       </c>
       <c r="B23" s="0" t="inlineStr">
         <is>
@@ -1760,14 +1763,14 @@
         <v>10</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>317.35</v>
+        <v>317.75</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>3189.4</v>
+        <v>3193.4</v>
       </c>
       <c r="G23" s="0" t="inlineStr">
         <is>
-          <t>CN#252608021091</t>
+          <t>CN#252608142538</t>
         </is>
       </c>
       <c r="I23" s="0" t="n">
@@ -1780,7 +1783,7 @@
     </row>
     <row r="24">
       <c r="A24" s="87" t="n">
-        <v>45971</v>
+        <v>45972</v>
       </c>
       <c r="B24" s="0" t="inlineStr">
         <is>
@@ -1793,21 +1796,21 @@
         </is>
       </c>
       <c r="D24" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>318.15</v>
+        <v>317.35</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>6394.8</v>
+        <v>3189.4</v>
       </c>
       <c r="G24" s="0" t="inlineStr">
         <is>
-          <t>CN#252607962278</t>
+          <t>CN#252608021091</t>
         </is>
       </c>
       <c r="I24" s="0" t="n">
-        <v>31.8</v>
+        <v>15.9</v>
       </c>
       <c r="J24" s="0">
         <f>Index!$C$2</f>
@@ -1816,7 +1819,7 @@
     </row>
     <row r="25">
       <c r="A25" s="87" t="n">
-        <v>45968</v>
+        <v>45971</v>
       </c>
       <c r="B25" s="0" t="inlineStr">
         <is>
@@ -1832,18 +1835,18 @@
         <v>20</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>315.5</v>
+        <v>318.15</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>6341.6</v>
+        <v>6394.8</v>
       </c>
       <c r="G25" s="0" t="inlineStr">
         <is>
-          <t>CN#252607899666</t>
+          <t>CN#252607962278</t>
         </is>
       </c>
       <c r="I25" s="0" t="n">
-        <v>31.6</v>
+        <v>31.8</v>
       </c>
       <c r="J25" s="0">
         <f>Index!$C$2</f>
@@ -1852,7 +1855,7 @@
     </row>
     <row r="26">
       <c r="A26" s="87" t="n">
-        <v>45961</v>
+        <v>45968</v>
       </c>
       <c r="B26" s="0" t="inlineStr">
         <is>
@@ -1868,18 +1871,18 @@
         <v>20</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>329.9</v>
+        <v>315.5</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>6631</v>
+        <v>6341.6</v>
       </c>
       <c r="G26" s="0" t="inlineStr">
         <is>
-          <t>CN#252607606298</t>
+          <t>CN#252607899666</t>
         </is>
       </c>
       <c r="I26" s="0" t="n">
-        <v>33</v>
+        <v>31.6</v>
       </c>
       <c r="J26" s="0">
         <f>Index!$C$2</f>
@@ -1888,7 +1891,7 @@
     </row>
     <row r="27">
       <c r="A27" s="87" t="n">
-        <v>45959</v>
+        <v>45961</v>
       </c>
       <c r="B27" s="0" t="inlineStr">
         <is>
@@ -1901,21 +1904,21 @@
         </is>
       </c>
       <c r="D27" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>328.3</v>
+        <v>329.9</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>9898.200000000001</v>
+        <v>6631</v>
       </c>
       <c r="G27" s="0" t="inlineStr">
         <is>
-          <t>CN#252607497001</t>
+          <t>CN#252607606298</t>
         </is>
       </c>
       <c r="I27" s="0" t="n">
-        <v>49.2</v>
+        <v>33</v>
       </c>
       <c r="J27" s="0">
         <f>Index!$C$2</f>
@@ -1924,7 +1927,7 @@
     </row>
     <row r="28">
       <c r="A28" s="87" t="n">
-        <v>45957</v>
+        <v>45959</v>
       </c>
       <c r="B28" s="0" t="inlineStr">
         <is>
@@ -1937,21 +1940,21 @@
         </is>
       </c>
       <c r="D28" s="0" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>329.8</v>
+        <v>328.3</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>3314.5</v>
+        <v>9898.200000000001</v>
       </c>
       <c r="G28" s="0" t="inlineStr">
         <is>
-          <t>CN#252607382790</t>
+          <t>CN#252607497001</t>
         </is>
       </c>
       <c r="I28" s="0" t="n">
-        <v>16.5</v>
+        <v>49.2</v>
       </c>
       <c r="J28" s="0">
         <f>Index!$C$2</f>
@@ -1960,7 +1963,7 @@
     </row>
     <row r="29">
       <c r="A29" s="87" t="n">
-        <v>45967</v>
+        <v>45957</v>
       </c>
       <c r="B29" s="0" t="inlineStr">
         <is>
@@ -1973,122 +1976,66 @@
         </is>
       </c>
       <c r="D29" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>329.8</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>3314.5</v>
+      </c>
+      <c r="G29" s="0" t="inlineStr">
+        <is>
+          <t>CN#252607382790</t>
+        </is>
+      </c>
+      <c r="I29" s="0" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="J29" s="0">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="87" t="n">
+        <v>45967</v>
+      </c>
+      <c r="B30" s="0" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C30" s="0" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D30" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="E29" s="0" t="n">
+      <c r="E30" s="0" t="n">
         <v>320.3</v>
       </c>
-      <c r="F29" s="0" t="n">
+      <c r="F30" s="0" t="n">
         <v>6438</v>
       </c>
-      <c r="G29" s="0" t="inlineStr">
+      <c r="G30" s="0" t="inlineStr">
         <is>
           <t>CN#252607785263</t>
         </is>
       </c>
-      <c r="I29" s="0" t="n">
+      <c r="I30" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="J29" s="0">
+      <c r="J30" s="0">
         <f>Index!$C$2</f>
         <v/>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="38" t="n">
-        <v>45950</v>
-      </c>
-      <c r="B30" s="39" t="inlineStr">
-        <is>
-          <t>NSE</t>
-        </is>
-      </c>
-      <c r="C30" s="39" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="D30" s="40" t="n">
-        <v>40</v>
-      </c>
-      <c r="E30" s="41" t="n">
-        <v>333.04</v>
-      </c>
-      <c r="F30" s="42">
-        <f>D5*E5</f>
-        <v/>
-      </c>
-      <c r="G30" s="39" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
-      <c r="H30" s="40" t="n"/>
-      <c r="I30" s="40" t="n"/>
-      <c r="J30" s="43">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K30" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="L30" s="45">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="M30" s="45">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
-        <v/>
-      </c>
-      <c r="N30" s="46">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
-        <v/>
-      </c>
-      <c r="O30" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="P30" s="45">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="Q30" s="45">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
-        <v/>
-      </c>
-      <c r="R30" s="45">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="S30" s="47">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="T30" s="48">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="U30" s="48">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
-        <v/>
-      </c>
-      <c r="V30" s="48">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="W30" s="49" t="n"/>
-      <c r="X30" s="49" t="n"/>
-      <c r="Y30" s="50" t="n"/>
-      <c r="Z30" s="49" t="n"/>
-      <c r="AA30" s="49" t="n"/>
-      <c r="AB30" s="51" t="n"/>
-      <c r="AC30" s="52" t="n"/>
-      <c r="AD30" s="53" t="n"/>
-    </row>
     <row r="31">
       <c r="A31" s="38" t="n">
-        <v>45947</v>
+        <v>45950</v>
       </c>
       <c r="B31" s="39" t="inlineStr">
         <is>
@@ -2101,13 +2048,13 @@
         </is>
       </c>
       <c r="D31" s="40" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E31" s="41" t="n">
-        <v>335.92</v>
+        <v>333.04</v>
       </c>
       <c r="F31" s="42">
-        <f>D6*E6</f>
+        <f>D5*E5</f>
         <v/>
       </c>
       <c r="G31" s="39" t="inlineStr">
@@ -2122,51 +2069,51 @@
         <v/>
       </c>
       <c r="K31" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="L31" s="45">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="M31" s="45">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
         <v/>
       </c>
       <c r="N31" s="46">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
         <v/>
       </c>
       <c r="O31" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="P31" s="45">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="Q31" s="45">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
         <v/>
       </c>
       <c r="R31" s="45">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="S31" s="47">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="T31" s="48">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="U31" s="48">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
         <v/>
       </c>
       <c r="V31" s="48">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="W31" s="49" t="n"/>
@@ -2180,7 +2127,7 @@
     </row>
     <row r="32">
       <c r="A32" s="38" t="n">
-        <v>45943</v>
+        <v>45947</v>
       </c>
       <c r="B32" s="39" t="inlineStr">
         <is>
@@ -2193,13 +2140,13 @@
         </is>
       </c>
       <c r="D32" s="40" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E32" s="41" t="n">
-        <v>341.5</v>
+        <v>335.92</v>
       </c>
       <c r="F32" s="42">
-        <f>D7*E7</f>
+        <f>D6*E6</f>
         <v/>
       </c>
       <c r="G32" s="39" t="inlineStr">
@@ -2214,51 +2161,51 @@
         <v/>
       </c>
       <c r="K32" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="L32" s="45">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="M32" s="45">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
         <v/>
       </c>
       <c r="N32" s="46">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
         <v/>
       </c>
       <c r="O32" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="P32" s="45">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="Q32" s="45">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
         <v/>
       </c>
       <c r="R32" s="45">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
         <v/>
       </c>
       <c r="S32" s="47">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="T32" s="48">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="U32" s="48">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
         <v/>
       </c>
       <c r="V32" s="48">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
         <v/>
       </c>
       <c r="W32" s="49" t="n"/>
@@ -2272,7 +2219,7 @@
     </row>
     <row r="33">
       <c r="A33" s="38" t="n">
-        <v>45940</v>
+        <v>45943</v>
       </c>
       <c r="B33" s="39" t="inlineStr">
         <is>
@@ -2285,13 +2232,13 @@
         </is>
       </c>
       <c r="D33" s="40" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E33" s="41" t="n">
-        <v>347.5</v>
+        <v>341.5</v>
       </c>
       <c r="F33" s="42">
-        <f>D8*E8</f>
+        <f>D7*E7</f>
         <v/>
       </c>
       <c r="G33" s="39" t="inlineStr">
@@ -2306,51 +2253,51 @@
         <v/>
       </c>
       <c r="K33" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="L33" s="45">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="M33" s="45">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
         <v/>
       </c>
       <c r="N33" s="46">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
         <v/>
       </c>
       <c r="O33" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="P33" s="45">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="Q33" s="45">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
         <v/>
       </c>
       <c r="R33" s="45">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="S33" s="47">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="T33" s="48">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="U33" s="48">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
         <v/>
       </c>
       <c r="V33" s="48">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="W33" s="49" t="n"/>
@@ -2363,20 +2310,96 @@
       <c r="AD33" s="53" t="n"/>
     </row>
     <row r="34">
-      <c r="E34" s="54" t="n"/>
-      <c r="F34" s="54" t="n"/>
-      <c r="G34" s="55" t="n"/>
-      <c r="J34" s="54" t="n"/>
-      <c r="K34" s="54" t="n"/>
-      <c r="L34" s="54" t="n"/>
-      <c r="M34" s="57" t="n"/>
-      <c r="W34" s="54" t="n"/>
-      <c r="X34" s="54" t="n"/>
-      <c r="Y34" s="54" t="n"/>
-      <c r="Z34" s="54" t="n"/>
-      <c r="AA34" s="54" t="n"/>
-      <c r="AB34" s="54" t="n"/>
-      <c r="AC34" s="54" t="n"/>
+      <c r="A34" s="38" t="n">
+        <v>45940</v>
+      </c>
+      <c r="B34" s="39" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C34" s="39" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D34" s="40" t="n">
+        <v>20</v>
+      </c>
+      <c r="E34" s="41" t="n">
+        <v>347.5</v>
+      </c>
+      <c r="F34" s="42">
+        <f>D8*E8</f>
+        <v/>
+      </c>
+      <c r="G34" s="39" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H34" s="40" t="n"/>
+      <c r="I34" s="40" t="n"/>
+      <c r="J34" s="43">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K34" s="44">
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/sum(F8:I8), "")</f>
+        <v/>
+      </c>
+      <c r="L34" s="45">
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <v/>
+      </c>
+      <c r="M34" s="45">
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
+        <v/>
+      </c>
+      <c r="N34" s="46">
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
+        <v/>
+      </c>
+      <c r="O34" s="44">
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/sum(F8:I8), "")</f>
+        <v/>
+      </c>
+      <c r="P34" s="45">
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <v/>
+      </c>
+      <c r="Q34" s="45">
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
+        <v/>
+      </c>
+      <c r="R34" s="45">
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
+        <v/>
+      </c>
+      <c r="S34" s="47">
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/sum(F8:I8), "")</f>
+        <v/>
+      </c>
+      <c r="T34" s="48">
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <v/>
+      </c>
+      <c r="U34" s="48">
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
+        <v/>
+      </c>
+      <c r="V34" s="48">
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
+        <v/>
+      </c>
+      <c r="W34" s="49" t="n"/>
+      <c r="X34" s="49" t="n"/>
+      <c r="Y34" s="50" t="n"/>
+      <c r="Z34" s="49" t="n"/>
+      <c r="AA34" s="49" t="n"/>
+      <c r="AB34" s="51" t="n"/>
+      <c r="AC34" s="52" t="n"/>
+      <c r="AD34" s="53" t="n"/>
     </row>
     <row r="35">
       <c r="E35" s="54" t="n"/>
@@ -17345,6 +17368,7 @@
       <c r="J970" s="54" t="n"/>
       <c r="K970" s="54" t="n"/>
       <c r="L970" s="54" t="n"/>
+      <c r="M970" s="57" t="n"/>
       <c r="W970" s="54" t="n"/>
       <c r="X970" s="54" t="n"/>
       <c r="Y970" s="54" t="n"/>
@@ -17592,6 +17616,21 @@
       <c r="AA986" s="54" t="n"/>
       <c r="AB986" s="54" t="n"/>
       <c r="AC986" s="54" t="n"/>
+    </row>
+    <row r="987">
+      <c r="E987" s="54" t="n"/>
+      <c r="F987" s="54" t="n"/>
+      <c r="G987" s="55" t="n"/>
+      <c r="J987" s="54" t="n"/>
+      <c r="K987" s="54" t="n"/>
+      <c r="L987" s="54" t="n"/>
+      <c r="W987" s="54" t="n"/>
+      <c r="X987" s="54" t="n"/>
+      <c r="Y987" s="54" t="n"/>
+      <c r="Z987" s="54" t="n"/>
+      <c r="AA987" s="54" t="n"/>
+      <c r="AB987" s="54" t="n"/>
+      <c r="AC987" s="54" t="n"/>
     </row>
   </sheetData>
   <autoFilter ref="$A$4:$AO$38"/>
